--- a/heart_0531.xlsx
+++ b/heart_0531.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaole\Desktop\YYY\交付物\oiAAA\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B5C22-CD45-45AC-B84A-38BA4BC0B213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AB974-E751-4A82-B4A2-B595F2F833B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABD86A05-5CBE-4290-A710-511438F33171}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89D39C7-8B8F-4A45-92B1-96838196B392}">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="O408" sqref="O408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="N408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
@@ -19014,7 +19014,7 @@
         <v>3</v>
       </c>
       <c r="N409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
@@ -19058,7 +19058,7 @@
         <v>2</v>
       </c>
       <c r="N410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
@@ -19102,7 +19102,7 @@
         <v>2</v>
       </c>
       <c r="N411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
@@ -19146,7 +19146,7 @@
         <v>2</v>
       </c>
       <c r="N412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
@@ -19190,7 +19190,7 @@
         <v>2</v>
       </c>
       <c r="N413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
@@ -19234,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="N414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
@@ -19278,7 +19278,7 @@
         <v>2</v>
       </c>
       <c r="N415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
@@ -19322,7 +19322,7 @@
         <v>3</v>
       </c>
       <c r="N416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
@@ -19366,7 +19366,7 @@
         <v>2</v>
       </c>
       <c r="N417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
@@ -19410,7 +19410,7 @@
         <v>2</v>
       </c>
       <c r="N418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
@@ -19454,7 +19454,7 @@
         <v>2</v>
       </c>
       <c r="N419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
@@ -19498,7 +19498,7 @@
         <v>2</v>
       </c>
       <c r="N420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
@@ -19542,7 +19542,7 @@
         <v>2</v>
       </c>
       <c r="N421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
@@ -19586,7 +19586,7 @@
         <v>2</v>
       </c>
       <c r="N422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
@@ -19630,7 +19630,7 @@
         <v>2</v>
       </c>
       <c r="N423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
@@ -19674,7 +19674,7 @@
         <v>2</v>
       </c>
       <c r="N424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
@@ -19718,7 +19718,7 @@
         <v>2</v>
       </c>
       <c r="N425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
@@ -19762,7 +19762,7 @@
         <v>3</v>
       </c>
       <c r="N426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
@@ -19806,7 +19806,7 @@
         <v>3</v>
       </c>
       <c r="N427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
@@ -19850,7 +19850,7 @@
         <v>2</v>
       </c>
       <c r="N428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
@@ -19894,7 +19894,7 @@
         <v>2</v>
       </c>
       <c r="N429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
@@ -19938,7 +19938,7 @@
         <v>3</v>
       </c>
       <c r="N430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="N431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
@@ -20026,7 +20026,7 @@
         <v>3</v>
       </c>
       <c r="N432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -20070,7 +20070,7 @@
         <v>3</v>
       </c>
       <c r="N433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -20114,7 +20114,7 @@
         <v>2</v>
       </c>
       <c r="N434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -20158,7 +20158,7 @@
         <v>2</v>
       </c>
       <c r="N435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
@@ -20202,7 +20202,7 @@
         <v>2</v>
       </c>
       <c r="N436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
@@ -20246,7 +20246,7 @@
         <v>2</v>
       </c>
       <c r="N437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
@@ -20290,7 +20290,7 @@
         <v>2</v>
       </c>
       <c r="N438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
@@ -20334,7 +20334,7 @@
         <v>3</v>
       </c>
       <c r="N439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
@@ -20378,7 +20378,7 @@
         <v>2</v>
       </c>
       <c r="N440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
@@ -20422,7 +20422,7 @@
         <v>2</v>
       </c>
       <c r="N441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
@@ -20466,7 +20466,7 @@
         <v>2</v>
       </c>
       <c r="N442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
@@ -20510,7 +20510,7 @@
         <v>3</v>
       </c>
       <c r="N443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="N444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
@@ -20598,7 +20598,7 @@
         <v>2</v>
       </c>
       <c r="N445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
@@ -20642,7 +20642,7 @@
         <v>2</v>
       </c>
       <c r="N446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
@@ -20686,7 +20686,7 @@
         <v>2</v>
       </c>
       <c r="N447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
@@ -20730,7 +20730,7 @@
         <v>2</v>
       </c>
       <c r="N448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -20774,7 +20774,7 @@
         <v>3</v>
       </c>
       <c r="N449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -20818,7 +20818,7 @@
         <v>2</v>
       </c>
       <c r="N450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -20862,7 +20862,7 @@
         <v>2</v>
       </c>
       <c r="N451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -20906,7 +20906,7 @@
         <v>3</v>
       </c>
       <c r="N452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -20950,7 +20950,7 @@
         <v>2</v>
       </c>
       <c r="N453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -20994,7 +20994,7 @@
         <v>3</v>
       </c>
       <c r="N454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -21038,7 +21038,7 @@
         <v>2</v>
       </c>
       <c r="N455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -21082,7 +21082,7 @@
         <v>3</v>
       </c>
       <c r="N456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -21126,7 +21126,7 @@
         <v>2</v>
       </c>
       <c r="N457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -21170,7 +21170,7 @@
         <v>2</v>
       </c>
       <c r="N458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -21214,7 +21214,7 @@
         <v>2</v>
       </c>
       <c r="N459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -21258,7 +21258,7 @@
         <v>2</v>
       </c>
       <c r="N460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -21302,7 +21302,7 @@
         <v>2</v>
       </c>
       <c r="N461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -21346,7 +21346,7 @@
         <v>3</v>
       </c>
       <c r="N462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -21390,7 +21390,7 @@
         <v>2</v>
       </c>
       <c r="N463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -21434,7 +21434,7 @@
         <v>1</v>
       </c>
       <c r="N464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -21478,7 +21478,7 @@
         <v>3</v>
       </c>
       <c r="N465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -21522,7 +21522,7 @@
         <v>3</v>
       </c>
       <c r="N466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -21566,7 +21566,7 @@
         <v>2</v>
       </c>
       <c r="N467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -21610,7 +21610,7 @@
         <v>2</v>
       </c>
       <c r="N468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -21654,7 +21654,7 @@
         <v>2</v>
       </c>
       <c r="N469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -21698,7 +21698,7 @@
         <v>2</v>
       </c>
       <c r="N470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -21742,7 +21742,7 @@
         <v>2</v>
       </c>
       <c r="N471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -21786,7 +21786,7 @@
         <v>2</v>
       </c>
       <c r="N472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -21830,7 +21830,7 @@
         <v>3</v>
       </c>
       <c r="N473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -21874,7 +21874,7 @@
         <v>2</v>
       </c>
       <c r="N474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -21918,7 +21918,7 @@
         <v>2</v>
       </c>
       <c r="N475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -21962,7 +21962,7 @@
         <v>3</v>
       </c>
       <c r="N476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -22006,7 +22006,7 @@
         <v>3</v>
       </c>
       <c r="N477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -22050,7 +22050,7 @@
         <v>3</v>
       </c>
       <c r="N478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -22094,7 +22094,7 @@
         <v>3</v>
       </c>
       <c r="N479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -22138,7 +22138,7 @@
         <v>2</v>
       </c>
       <c r="N480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
@@ -22182,7 +22182,7 @@
         <v>3</v>
       </c>
       <c r="N481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.3">
@@ -22226,7 +22226,7 @@
         <v>3</v>
       </c>
       <c r="N482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.3">
@@ -22270,7 +22270,7 @@
         <v>3</v>
       </c>
       <c r="N483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.3">
@@ -22314,7 +22314,7 @@
         <v>3</v>
       </c>
       <c r="N484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.3">
@@ -22358,7 +22358,7 @@
         <v>2</v>
       </c>
       <c r="N485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.3">
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="N486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
@@ -22446,7 +22446,7 @@
         <v>3</v>
       </c>
       <c r="N487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.3">
@@ -22490,7 +22490,7 @@
         <v>3</v>
       </c>
       <c r="N488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
@@ -22534,7 +22534,7 @@
         <v>3</v>
       </c>
       <c r="N489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.3">
@@ -22578,7 +22578,7 @@
         <v>2</v>
       </c>
       <c r="N490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.3">
@@ -22622,7 +22622,7 @@
         <v>2</v>
       </c>
       <c r="N491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.3">
@@ -22666,7 +22666,7 @@
         <v>2</v>
       </c>
       <c r="N492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.3">
@@ -22710,7 +22710,7 @@
         <v>2</v>
       </c>
       <c r="N493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
@@ -22754,7 +22754,7 @@
         <v>3</v>
       </c>
       <c r="N494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.3">
@@ -22798,7 +22798,7 @@
         <v>3</v>
       </c>
       <c r="N495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
@@ -22842,7 +22842,7 @@
         <v>2</v>
       </c>
       <c r="N496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.3">
@@ -22886,7 +22886,7 @@
         <v>3</v>
       </c>
       <c r="N497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.3">
@@ -22930,7 +22930,7 @@
         <v>3</v>
       </c>
       <c r="N498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.3">
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="N499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.3">
@@ -23018,7 +23018,7 @@
         <v>2</v>
       </c>
       <c r="N500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.3">
@@ -23062,7 +23062,7 @@
         <v>2</v>
       </c>
       <c r="N501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.3">
@@ -23106,7 +23106,7 @@
         <v>2</v>
       </c>
       <c r="N502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.3">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="N503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.3">
@@ -23194,7 +23194,7 @@
         <v>2</v>
       </c>
       <c r="N504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.3">
@@ -23238,7 +23238,7 @@
         <v>2</v>
       </c>
       <c r="N505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.3">
@@ -23282,7 +23282,7 @@
         <v>2</v>
       </c>
       <c r="N506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.3">
@@ -23326,7 +23326,7 @@
         <v>2</v>
       </c>
       <c r="N507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.3">
@@ -23370,7 +23370,7 @@
         <v>3</v>
       </c>
       <c r="N508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.3">
@@ -23414,7 +23414,7 @@
         <v>2</v>
       </c>
       <c r="N509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.3">
@@ -23458,7 +23458,7 @@
         <v>3</v>
       </c>
       <c r="N510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.3">
@@ -23502,7 +23502,7 @@
         <v>2</v>
       </c>
       <c r="N511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.3">
@@ -23546,7 +23546,7 @@
         <v>2</v>
       </c>
       <c r="N512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.3">
@@ -23590,7 +23590,7 @@
         <v>3</v>
       </c>
       <c r="N513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.3">
@@ -23634,7 +23634,7 @@
         <v>2</v>
       </c>
       <c r="N514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.3">
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="N515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.3">
@@ -23722,7 +23722,7 @@
         <v>2</v>
       </c>
       <c r="N516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.3">
@@ -23766,7 +23766,7 @@
         <v>3</v>
       </c>
       <c r="N517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.3">
@@ -23810,7 +23810,7 @@
         <v>3</v>
       </c>
       <c r="N518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.3">
@@ -23854,7 +23854,7 @@
         <v>2</v>
       </c>
       <c r="N519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.3">
@@ -23898,7 +23898,7 @@
         <v>3</v>
       </c>
       <c r="N520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.3">
@@ -23942,7 +23942,7 @@
         <v>3</v>
       </c>
       <c r="N521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.3">
@@ -23986,7 +23986,7 @@
         <v>3</v>
       </c>
       <c r="N522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.3">
@@ -24030,7 +24030,7 @@
         <v>3</v>
       </c>
       <c r="N523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.3">
@@ -24074,7 +24074,7 @@
         <v>2</v>
       </c>
       <c r="N524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.3">
@@ -24118,7 +24118,7 @@
         <v>3</v>
       </c>
       <c r="N525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.3">
@@ -24162,7 +24162,7 @@
         <v>3</v>
       </c>
       <c r="N526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.3">
@@ -24206,7 +24206,7 @@
         <v>2</v>
       </c>
       <c r="N527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.3">
@@ -24250,7 +24250,7 @@
         <v>3</v>
       </c>
       <c r="N528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.3">
@@ -24294,7 +24294,7 @@
         <v>2</v>
       </c>
       <c r="N529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.3">
@@ -24338,7 +24338,7 @@
         <v>3</v>
       </c>
       <c r="N530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.3">
@@ -24382,7 +24382,7 @@
         <v>2</v>
       </c>
       <c r="N531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.3">
@@ -24426,7 +24426,7 @@
         <v>3</v>
       </c>
       <c r="N532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.3">
@@ -24470,7 +24470,7 @@
         <v>2</v>
       </c>
       <c r="N533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.3">
@@ -24514,7 +24514,7 @@
         <v>2</v>
       </c>
       <c r="N534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.3">
@@ -24558,7 +24558,7 @@
         <v>2</v>
       </c>
       <c r="N535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.3">
@@ -24602,7 +24602,7 @@
         <v>2</v>
       </c>
       <c r="N536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.3">
@@ -24646,7 +24646,7 @@
         <v>2</v>
       </c>
       <c r="N537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.3">
@@ -24690,7 +24690,7 @@
         <v>2</v>
       </c>
       <c r="N538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.3">
@@ -24734,7 +24734,7 @@
         <v>2</v>
       </c>
       <c r="N539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.3">
@@ -24778,7 +24778,7 @@
         <v>3</v>
       </c>
       <c r="N540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.3">
@@ -24822,7 +24822,7 @@
         <v>3</v>
       </c>
       <c r="N541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.3">
@@ -24866,7 +24866,7 @@
         <v>3</v>
       </c>
       <c r="N542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.3">
@@ -24910,7 +24910,7 @@
         <v>2</v>
       </c>
       <c r="N543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.3">
@@ -24954,7 +24954,7 @@
         <v>2</v>
       </c>
       <c r="N544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.3">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="N545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.3">
@@ -25042,7 +25042,7 @@
         <v>2</v>
       </c>
       <c r="N546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.3">
@@ -25086,7 +25086,7 @@
         <v>3</v>
       </c>
       <c r="N547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.3">
@@ -25130,7 +25130,7 @@
         <v>2</v>
       </c>
       <c r="N548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.3">
@@ -25174,7 +25174,7 @@
         <v>2</v>
       </c>
       <c r="N549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.3">
@@ -25218,7 +25218,7 @@
         <v>2</v>
       </c>
       <c r="N550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.3">
@@ -25262,7 +25262,7 @@
         <v>3</v>
       </c>
       <c r="N551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.3">
@@ -25306,7 +25306,7 @@
         <v>3</v>
       </c>
       <c r="N552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.3">
@@ -25350,7 +25350,7 @@
         <v>2</v>
       </c>
       <c r="N553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.3">
@@ -25394,7 +25394,7 @@
         <v>3</v>
       </c>
       <c r="N554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.3">
@@ -25438,7 +25438,7 @@
         <v>2</v>
       </c>
       <c r="N555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.3">
@@ -25482,7 +25482,7 @@
         <v>3</v>
       </c>
       <c r="N556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.3">
@@ -25526,7 +25526,7 @@
         <v>3</v>
       </c>
       <c r="N557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.3">
@@ -25570,7 +25570,7 @@
         <v>3</v>
       </c>
       <c r="N558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.3">
@@ -25614,7 +25614,7 @@
         <v>2</v>
       </c>
       <c r="N559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.3">
@@ -25658,7 +25658,7 @@
         <v>2</v>
       </c>
       <c r="N560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.3">
@@ -25702,7 +25702,7 @@
         <v>2</v>
       </c>
       <c r="N561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.3">
@@ -25746,7 +25746,7 @@
         <v>2</v>
       </c>
       <c r="N562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.3">
@@ -25790,7 +25790,7 @@
         <v>2</v>
       </c>
       <c r="N563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.3">
@@ -25834,7 +25834,7 @@
         <v>2</v>
       </c>
       <c r="N564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.3">
@@ -25878,7 +25878,7 @@
         <v>2</v>
       </c>
       <c r="N565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.3">
@@ -25922,7 +25922,7 @@
         <v>1</v>
       </c>
       <c r="N566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.3">
@@ -25966,7 +25966,7 @@
         <v>2</v>
       </c>
       <c r="N567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.3">
@@ -26010,7 +26010,7 @@
         <v>2</v>
       </c>
       <c r="N568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.3">
@@ -26054,7 +26054,7 @@
         <v>2</v>
       </c>
       <c r="N569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.3">
@@ -26098,7 +26098,7 @@
         <v>2</v>
       </c>
       <c r="N570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.3">
@@ -26142,7 +26142,7 @@
         <v>3</v>
       </c>
       <c r="N571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.3">
@@ -26186,7 +26186,7 @@
         <v>2</v>
       </c>
       <c r="N572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.3">
@@ -26230,7 +26230,7 @@
         <v>3</v>
       </c>
       <c r="N573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.3">
@@ -26274,7 +26274,7 @@
         <v>2</v>
       </c>
       <c r="N574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.3">
@@ -26318,7 +26318,7 @@
         <v>2</v>
       </c>
       <c r="N575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.3">
@@ -26362,7 +26362,7 @@
         <v>3</v>
       </c>
       <c r="N576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.3">
@@ -26406,7 +26406,7 @@
         <v>2</v>
       </c>
       <c r="N577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.3">
@@ -26450,7 +26450,7 @@
         <v>3</v>
       </c>
       <c r="N578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.3">
@@ -26494,7 +26494,7 @@
         <v>2</v>
       </c>
       <c r="N579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.3">
@@ -26538,7 +26538,7 @@
         <v>2</v>
       </c>
       <c r="N580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.3">
@@ -26582,7 +26582,7 @@
         <v>3</v>
       </c>
       <c r="N581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.3">
@@ -26626,7 +26626,7 @@
         <v>3</v>
       </c>
       <c r="N582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.3">
@@ -26670,7 +26670,7 @@
         <v>2</v>
       </c>
       <c r="N583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.3">
@@ -26714,7 +26714,7 @@
         <v>2</v>
       </c>
       <c r="N584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.3">
@@ -26758,7 +26758,7 @@
         <v>3</v>
       </c>
       <c r="N585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.3">
@@ -26802,7 +26802,7 @@
         <v>3</v>
       </c>
       <c r="N586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.3">
@@ -26846,7 +26846,7 @@
         <v>3</v>
       </c>
       <c r="N587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.3">
@@ -26890,7 +26890,7 @@
         <v>3</v>
       </c>
       <c r="N588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.3">
@@ -26934,7 +26934,7 @@
         <v>1</v>
       </c>
       <c r="N589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.3">
@@ -26978,7 +26978,7 @@
         <v>3</v>
       </c>
       <c r="N590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.3">
@@ -27022,7 +27022,7 @@
         <v>2</v>
       </c>
       <c r="N591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.3">
@@ -27066,7 +27066,7 @@
         <v>2</v>
       </c>
       <c r="N592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.3">
@@ -27110,7 +27110,7 @@
         <v>2</v>
       </c>
       <c r="N593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.3">
@@ -27154,7 +27154,7 @@
         <v>3</v>
       </c>
       <c r="N594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.3">
@@ -27198,7 +27198,7 @@
         <v>2</v>
       </c>
       <c r="N595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.3">
@@ -27242,7 +27242,7 @@
         <v>1</v>
       </c>
       <c r="N596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.3">
@@ -27286,7 +27286,7 @@
         <v>3</v>
       </c>
       <c r="N597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.3">
@@ -27330,7 +27330,7 @@
         <v>2</v>
       </c>
       <c r="N598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.3">
@@ -27374,7 +27374,7 @@
         <v>2</v>
       </c>
       <c r="N599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.3">
@@ -27418,7 +27418,7 @@
         <v>2</v>
       </c>
       <c r="N600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.3">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="N601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.3">
@@ -27506,7 +27506,7 @@
         <v>3</v>
       </c>
       <c r="N602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.3">
@@ -27550,7 +27550,7 @@
         <v>3</v>
       </c>
       <c r="N603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.3">
@@ -27594,7 +27594,7 @@
         <v>2</v>
       </c>
       <c r="N604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.3">
@@ -27638,7 +27638,7 @@
         <v>2</v>
       </c>
       <c r="N605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.3">
@@ -27682,7 +27682,7 @@
         <v>2</v>
       </c>
       <c r="N606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.3">
@@ -27726,7 +27726,7 @@
         <v>2</v>
       </c>
       <c r="N607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.3">
@@ -27770,7 +27770,7 @@
         <v>2</v>
       </c>
       <c r="N608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.3">
@@ -27814,7 +27814,7 @@
         <v>1</v>
       </c>
       <c r="N609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.3">
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
       <c r="N610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.3">
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="N611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.3">
@@ -27946,7 +27946,7 @@
         <v>3</v>
       </c>
       <c r="N612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.3">
@@ -27990,7 +27990,7 @@
         <v>3</v>
       </c>
       <c r="N613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.3">
@@ -28034,7 +28034,7 @@
         <v>1</v>
       </c>
       <c r="N614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.3">
@@ -28078,7 +28078,7 @@
         <v>3</v>
       </c>
       <c r="N615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.3">
@@ -28122,7 +28122,7 @@
         <v>3</v>
       </c>
       <c r="N616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.3">
@@ -28166,7 +28166,7 @@
         <v>2</v>
       </c>
       <c r="N617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.3">
@@ -28210,7 +28210,7 @@
         <v>2</v>
       </c>
       <c r="N618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.3">
@@ -28254,7 +28254,7 @@
         <v>2</v>
       </c>
       <c r="N619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.3">
@@ -28298,7 +28298,7 @@
         <v>2</v>
       </c>
       <c r="N620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.3">
@@ -28342,7 +28342,7 @@
         <v>1</v>
       </c>
       <c r="N621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.3">
@@ -28386,7 +28386,7 @@
         <v>3</v>
       </c>
       <c r="N622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.3">
@@ -28430,7 +28430,7 @@
         <v>3</v>
       </c>
       <c r="N623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.3">
@@ -28474,7 +28474,7 @@
         <v>2</v>
       </c>
       <c r="N624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.3">
@@ -28518,7 +28518,7 @@
         <v>2</v>
       </c>
       <c r="N625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.3">
@@ -28562,7 +28562,7 @@
         <v>3</v>
       </c>
       <c r="N626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.3">
@@ -28606,7 +28606,7 @@
         <v>3</v>
       </c>
       <c r="N627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.3">
@@ -28650,7 +28650,7 @@
         <v>3</v>
       </c>
       <c r="N628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.3">
@@ -28694,7 +28694,7 @@
         <v>3</v>
       </c>
       <c r="N629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.3">
@@ -28738,7 +28738,7 @@
         <v>2</v>
       </c>
       <c r="N630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.3">
@@ -28782,7 +28782,7 @@
         <v>2</v>
       </c>
       <c r="N631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.3">
@@ -28826,7 +28826,7 @@
         <v>3</v>
       </c>
       <c r="N632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.3">
@@ -28870,7 +28870,7 @@
         <v>2</v>
       </c>
       <c r="N633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.3">
@@ -28914,7 +28914,7 @@
         <v>2</v>
       </c>
       <c r="N634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.3">
@@ -28958,7 +28958,7 @@
         <v>2</v>
       </c>
       <c r="N635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.3">
@@ -29002,7 +29002,7 @@
         <v>3</v>
       </c>
       <c r="N636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.3">
@@ -29046,7 +29046,7 @@
         <v>2</v>
       </c>
       <c r="N637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.3">
@@ -29090,7 +29090,7 @@
         <v>2</v>
       </c>
       <c r="N638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.3">
@@ -29134,7 +29134,7 @@
         <v>2</v>
       </c>
       <c r="N639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.3">
@@ -29178,7 +29178,7 @@
         <v>2</v>
       </c>
       <c r="N640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.3">
@@ -29222,7 +29222,7 @@
         <v>2</v>
       </c>
       <c r="N641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.3">
@@ -29266,7 +29266,7 @@
         <v>2</v>
       </c>
       <c r="N642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.3">
@@ -29310,7 +29310,7 @@
         <v>3</v>
       </c>
       <c r="N643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.3">
@@ -29354,7 +29354,7 @@
         <v>3</v>
       </c>
       <c r="N644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.3">
@@ -29398,7 +29398,7 @@
         <v>3</v>
       </c>
       <c r="N645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.3">
@@ -29442,7 +29442,7 @@
         <v>2</v>
       </c>
       <c r="N646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.3">
@@ -29486,7 +29486,7 @@
         <v>3</v>
       </c>
       <c r="N647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.3">
@@ -29530,7 +29530,7 @@
         <v>2</v>
       </c>
       <c r="N648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.3">
@@ -29574,7 +29574,7 @@
         <v>2</v>
       </c>
       <c r="N649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.3">
@@ -29618,7 +29618,7 @@
         <v>2</v>
       </c>
       <c r="N650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.3">
@@ -29662,7 +29662,7 @@
         <v>2</v>
       </c>
       <c r="N651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.3">
@@ -29706,7 +29706,7 @@
         <v>3</v>
       </c>
       <c r="N652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.3">
@@ -29750,7 +29750,7 @@
         <v>2</v>
       </c>
       <c r="N653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.3">
@@ -29794,7 +29794,7 @@
         <v>2</v>
       </c>
       <c r="N654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.3">
@@ -29838,7 +29838,7 @@
         <v>3</v>
       </c>
       <c r="N655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.3">
@@ -29882,7 +29882,7 @@
         <v>2</v>
       </c>
       <c r="N656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.3">
@@ -29926,7 +29926,7 @@
         <v>2</v>
       </c>
       <c r="N657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.3">
@@ -29970,7 +29970,7 @@
         <v>2</v>
       </c>
       <c r="N658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.3">
@@ -30014,7 +30014,7 @@
         <v>2</v>
       </c>
       <c r="N659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.3">
@@ -30058,7 +30058,7 @@
         <v>3</v>
       </c>
       <c r="N660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.3">
@@ -30102,7 +30102,7 @@
         <v>2</v>
       </c>
       <c r="N661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.3">
@@ -30146,7 +30146,7 @@
         <v>2</v>
       </c>
       <c r="N662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.3">
@@ -30190,7 +30190,7 @@
         <v>1</v>
       </c>
       <c r="N663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.3">
@@ -30234,7 +30234,7 @@
         <v>2</v>
       </c>
       <c r="N664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.3">
@@ -30278,7 +30278,7 @@
         <v>2</v>
       </c>
       <c r="N665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.3">
@@ -30322,7 +30322,7 @@
         <v>2</v>
       </c>
       <c r="N666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
@@ -30366,7 +30366,7 @@
         <v>2</v>
       </c>
       <c r="N667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.3">
@@ -30410,7 +30410,7 @@
         <v>2</v>
       </c>
       <c r="N668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.3">
@@ -30454,7 +30454,7 @@
         <v>3</v>
       </c>
       <c r="N669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.3">
@@ -30498,7 +30498,7 @@
         <v>2</v>
       </c>
       <c r="N670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.3">
@@ -30542,7 +30542,7 @@
         <v>1</v>
       </c>
       <c r="N671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.3">
@@ -30586,7 +30586,7 @@
         <v>2</v>
       </c>
       <c r="N672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.3">
@@ -30630,7 +30630,7 @@
         <v>3</v>
       </c>
       <c r="N673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.3">
@@ -30674,7 +30674,7 @@
         <v>3</v>
       </c>
       <c r="N674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.3">
@@ -30718,7 +30718,7 @@
         <v>3</v>
       </c>
       <c r="N675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.3">
@@ -30762,7 +30762,7 @@
         <v>3</v>
       </c>
       <c r="N676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.3">
@@ -30806,7 +30806,7 @@
         <v>3</v>
       </c>
       <c r="N677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.3">
@@ -30850,7 +30850,7 @@
         <v>3</v>
       </c>
       <c r="N678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.3">
@@ -30894,7 +30894,7 @@
         <v>3</v>
       </c>
       <c r="N679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.3">
@@ -30938,7 +30938,7 @@
         <v>2</v>
       </c>
       <c r="N680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.3">
@@ -30982,7 +30982,7 @@
         <v>3</v>
       </c>
       <c r="N681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.3">
@@ -31026,7 +31026,7 @@
         <v>2</v>
       </c>
       <c r="N682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.3">
@@ -31070,7 +31070,7 @@
         <v>3</v>
       </c>
       <c r="N683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.3">
@@ -31114,7 +31114,7 @@
         <v>1</v>
       </c>
       <c r="N684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.3">
@@ -31158,7 +31158,7 @@
         <v>3</v>
       </c>
       <c r="N685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.3">
@@ -31202,7 +31202,7 @@
         <v>2</v>
       </c>
       <c r="N686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.3">
@@ -31246,7 +31246,7 @@
         <v>3</v>
       </c>
       <c r="N687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.3">
@@ -31290,7 +31290,7 @@
         <v>0</v>
       </c>
       <c r="N688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.3">
@@ -31334,7 +31334,7 @@
         <v>3</v>
       </c>
       <c r="N689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.3">
@@ -31378,7 +31378,7 @@
         <v>3</v>
       </c>
       <c r="N690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.3">
@@ -31422,7 +31422,7 @@
         <v>2</v>
       </c>
       <c r="N691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.3">
@@ -31466,7 +31466,7 @@
         <v>3</v>
       </c>
       <c r="N692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.3">
@@ -31510,7 +31510,7 @@
         <v>2</v>
       </c>
       <c r="N693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.3">
@@ -31554,7 +31554,7 @@
         <v>3</v>
       </c>
       <c r="N694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.3">
@@ -31598,7 +31598,7 @@
         <v>2</v>
       </c>
       <c r="N695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.3">
@@ -31642,7 +31642,7 @@
         <v>3</v>
       </c>
       <c r="N696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.3">
@@ -31686,7 +31686,7 @@
         <v>3</v>
       </c>
       <c r="N697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.3">
@@ -31730,7 +31730,7 @@
         <v>2</v>
       </c>
       <c r="N698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.3">
@@ -31774,7 +31774,7 @@
         <v>3</v>
       </c>
       <c r="N699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.3">
@@ -31818,7 +31818,7 @@
         <v>2</v>
       </c>
       <c r="N700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.3">
@@ -31862,7 +31862,7 @@
         <v>3</v>
       </c>
       <c r="N701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.3">
@@ -31906,7 +31906,7 @@
         <v>2</v>
       </c>
       <c r="N702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.3">
@@ -31950,7 +31950,7 @@
         <v>3</v>
       </c>
       <c r="N703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.3">
@@ -31994,7 +31994,7 @@
         <v>2</v>
       </c>
       <c r="N704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.3">
@@ -32038,7 +32038,7 @@
         <v>1</v>
       </c>
       <c r="N705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.3">
@@ -32082,7 +32082,7 @@
         <v>3</v>
       </c>
       <c r="N706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.3">
@@ -32126,7 +32126,7 @@
         <v>3</v>
       </c>
       <c r="N707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.3">
@@ -32170,7 +32170,7 @@
         <v>3</v>
       </c>
       <c r="N708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.3">
@@ -32214,7 +32214,7 @@
         <v>2</v>
       </c>
       <c r="N709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.3">
@@ -32258,7 +32258,7 @@
         <v>2</v>
       </c>
       <c r="N710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.3">
@@ -32302,7 +32302,7 @@
         <v>3</v>
       </c>
       <c r="N711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.3">
@@ -32346,7 +32346,7 @@
         <v>3</v>
       </c>
       <c r="N712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.3">
@@ -32390,7 +32390,7 @@
         <v>3</v>
       </c>
       <c r="N713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.3">
@@ -32434,7 +32434,7 @@
         <v>2</v>
       </c>
       <c r="N714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.3">
@@ -32478,7 +32478,7 @@
         <v>2</v>
       </c>
       <c r="N715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.3">
@@ -32522,7 +32522,7 @@
         <v>2</v>
       </c>
       <c r="N716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.3">
@@ -32566,7 +32566,7 @@
         <v>2</v>
       </c>
       <c r="N717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.3">
@@ -32610,7 +32610,7 @@
         <v>3</v>
       </c>
       <c r="N718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.3">
@@ -32654,7 +32654,7 @@
         <v>1</v>
       </c>
       <c r="N719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.3">
@@ -32698,7 +32698,7 @@
         <v>2</v>
       </c>
       <c r="N720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.3">
@@ -32742,7 +32742,7 @@
         <v>3</v>
       </c>
       <c r="N721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.3">
@@ -32786,7 +32786,7 @@
         <v>2</v>
       </c>
       <c r="N722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.3">
@@ -32830,7 +32830,7 @@
         <v>2</v>
       </c>
       <c r="N723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.3">
@@ -32874,7 +32874,7 @@
         <v>2</v>
       </c>
       <c r="N724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.3">
@@ -32918,7 +32918,7 @@
         <v>2</v>
       </c>
       <c r="N725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.3">
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="N726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.3">
@@ -33006,7 +33006,7 @@
         <v>3</v>
       </c>
       <c r="N727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.3">
@@ -33050,7 +33050,7 @@
         <v>3</v>
       </c>
       <c r="N728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.3">
@@ -33094,7 +33094,7 @@
         <v>3</v>
       </c>
       <c r="N729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.3">
@@ -33138,7 +33138,7 @@
         <v>3</v>
       </c>
       <c r="N730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.3">
@@ -33182,7 +33182,7 @@
         <v>2</v>
       </c>
       <c r="N731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.3">
@@ -33226,7 +33226,7 @@
         <v>2</v>
       </c>
       <c r="N732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.3">
@@ -33270,7 +33270,7 @@
         <v>2</v>
       </c>
       <c r="N733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.3">
@@ -33314,7 +33314,7 @@
         <v>3</v>
       </c>
       <c r="N734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.3">
@@ -33358,7 +33358,7 @@
         <v>2</v>
       </c>
       <c r="N735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.3">
@@ -33402,7 +33402,7 @@
         <v>0</v>
       </c>
       <c r="N736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.3">
@@ -33446,7 +33446,7 @@
         <v>2</v>
       </c>
       <c r="N737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.3">
@@ -33490,7 +33490,7 @@
         <v>3</v>
       </c>
       <c r="N738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.3">
@@ -33534,7 +33534,7 @@
         <v>3</v>
       </c>
       <c r="N739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.3">
@@ -33578,7 +33578,7 @@
         <v>3</v>
       </c>
       <c r="N740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.3">
@@ -33622,7 +33622,7 @@
         <v>3</v>
       </c>
       <c r="N741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.3">
@@ -33666,7 +33666,7 @@
         <v>2</v>
       </c>
       <c r="N742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.3">
@@ -33710,7 +33710,7 @@
         <v>2</v>
       </c>
       <c r="N743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.3">
@@ -33754,7 +33754,7 @@
         <v>3</v>
       </c>
       <c r="N744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.3">
@@ -33798,7 +33798,7 @@
         <v>3</v>
       </c>
       <c r="N745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.3">
@@ -33842,7 +33842,7 @@
         <v>2</v>
       </c>
       <c r="N746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.3">
@@ -33886,7 +33886,7 @@
         <v>2</v>
       </c>
       <c r="N747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.3">
@@ -33930,7 +33930,7 @@
         <v>2</v>
       </c>
       <c r="N748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.3">
@@ -33974,7 +33974,7 @@
         <v>3</v>
       </c>
       <c r="N749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.3">
@@ -34018,7 +34018,7 @@
         <v>2</v>
       </c>
       <c r="N750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.3">
@@ -34062,7 +34062,7 @@
         <v>3</v>
       </c>
       <c r="N751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.3">
@@ -34106,7 +34106,7 @@
         <v>2</v>
       </c>
       <c r="N752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.3">
@@ -34150,7 +34150,7 @@
         <v>2</v>
       </c>
       <c r="N753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.3">
@@ -34194,7 +34194,7 @@
         <v>2</v>
       </c>
       <c r="N754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.3">
@@ -34238,7 +34238,7 @@
         <v>3</v>
       </c>
       <c r="N755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.3">
@@ -34282,7 +34282,7 @@
         <v>2</v>
       </c>
       <c r="N756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.3">
@@ -34326,7 +34326,7 @@
         <v>2</v>
       </c>
       <c r="N757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.3">
@@ -34370,7 +34370,7 @@
         <v>2</v>
       </c>
       <c r="N758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.3">
@@ -34414,7 +34414,7 @@
         <v>1</v>
       </c>
       <c r="N759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.3">
@@ -34458,7 +34458,7 @@
         <v>2</v>
       </c>
       <c r="N760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.3">
@@ -34502,7 +34502,7 @@
         <v>2</v>
       </c>
       <c r="N761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.3">
@@ -34546,7 +34546,7 @@
         <v>1</v>
       </c>
       <c r="N762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.3">
@@ -34590,7 +34590,7 @@
         <v>2</v>
       </c>
       <c r="N763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.3">
@@ -34634,7 +34634,7 @@
         <v>3</v>
       </c>
       <c r="N764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.3">
@@ -34678,7 +34678,7 @@
         <v>2</v>
       </c>
       <c r="N765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.3">
@@ -34722,7 +34722,7 @@
         <v>3</v>
       </c>
       <c r="N766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.3">
@@ -34766,7 +34766,7 @@
         <v>3</v>
       </c>
       <c r="N767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.3">
@@ -34810,7 +34810,7 @@
         <v>3</v>
       </c>
       <c r="N768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.3">
@@ -34854,7 +34854,7 @@
         <v>3</v>
       </c>
       <c r="N769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.3">
@@ -34898,7 +34898,7 @@
         <v>3</v>
       </c>
       <c r="N770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.3">
@@ -34942,7 +34942,7 @@
         <v>2</v>
       </c>
       <c r="N771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.3">
@@ -34986,7 +34986,7 @@
         <v>1</v>
       </c>
       <c r="N772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.3">
@@ -35030,7 +35030,7 @@
         <v>2</v>
       </c>
       <c r="N773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.3">
@@ -35074,7 +35074,7 @@
         <v>2</v>
       </c>
       <c r="N774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.3">
@@ -35118,7 +35118,7 @@
         <v>3</v>
       </c>
       <c r="N775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.3">
@@ -35162,7 +35162,7 @@
         <v>2</v>
       </c>
       <c r="N776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.3">
@@ -35206,7 +35206,7 @@
         <v>2</v>
       </c>
       <c r="N777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.3">
@@ -35250,7 +35250,7 @@
         <v>3</v>
       </c>
       <c r="N778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.3">
@@ -35294,7 +35294,7 @@
         <v>3</v>
       </c>
       <c r="N779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.3">
@@ -35338,7 +35338,7 @@
         <v>2</v>
       </c>
       <c r="N780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.3">
@@ -35382,7 +35382,7 @@
         <v>2</v>
       </c>
       <c r="N781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.3">
@@ -35426,7 +35426,7 @@
         <v>1</v>
       </c>
       <c r="N782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.3">
@@ -35470,7 +35470,7 @@
         <v>3</v>
       </c>
       <c r="N783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.3">
@@ -35514,7 +35514,7 @@
         <v>2</v>
       </c>
       <c r="N784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.3">
@@ -35558,7 +35558,7 @@
         <v>2</v>
       </c>
       <c r="N785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.3">
@@ -35602,7 +35602,7 @@
         <v>3</v>
       </c>
       <c r="N786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.3">
@@ -35646,7 +35646,7 @@
         <v>3</v>
       </c>
       <c r="N787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.3">
@@ -35690,7 +35690,7 @@
         <v>3</v>
       </c>
       <c r="N788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.3">
@@ -35734,7 +35734,7 @@
         <v>3</v>
       </c>
       <c r="N789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.3">
@@ -35778,7 +35778,7 @@
         <v>2</v>
       </c>
       <c r="N790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.3">
@@ -35822,7 +35822,7 @@
         <v>3</v>
       </c>
       <c r="N791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.3">
@@ -35866,7 +35866,7 @@
         <v>3</v>
       </c>
       <c r="N792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.3">
@@ -35910,7 +35910,7 @@
         <v>3</v>
       </c>
       <c r="N793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.3">
@@ -35954,7 +35954,7 @@
         <v>3</v>
       </c>
       <c r="N794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.3">
@@ -35998,7 +35998,7 @@
         <v>2</v>
       </c>
       <c r="N795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.3">
@@ -36042,7 +36042,7 @@
         <v>2</v>
       </c>
       <c r="N796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.3">
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="N797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:14" x14ac:dyDescent="0.3">
@@ -36130,7 +36130,7 @@
         <v>1</v>
       </c>
       <c r="N798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:14" x14ac:dyDescent="0.3">
@@ -36174,7 +36174,7 @@
         <v>3</v>
       </c>
       <c r="N799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.3">
@@ -36218,7 +36218,7 @@
         <v>3</v>
       </c>
       <c r="N800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.3">
@@ -36262,7 +36262,7 @@
         <v>2</v>
       </c>
       <c r="N801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.3">
@@ -36306,7 +36306,7 @@
         <v>3</v>
       </c>
       <c r="N802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:14" x14ac:dyDescent="0.3">
@@ -36350,7 +36350,7 @@
         <v>1</v>
       </c>
       <c r="N803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:14" x14ac:dyDescent="0.3">
@@ -36394,7 +36394,7 @@
         <v>2</v>
       </c>
       <c r="N804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.3">
@@ -36438,7 +36438,7 @@
         <v>2</v>
       </c>
       <c r="N805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.3">
@@ -36482,7 +36482,7 @@
         <v>2</v>
       </c>
       <c r="N806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.3">
@@ -36526,7 +36526,7 @@
         <v>3</v>
       </c>
       <c r="N807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.3">
@@ -36570,7 +36570,7 @@
         <v>1</v>
       </c>
       <c r="N808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:14" x14ac:dyDescent="0.3">
@@ -36614,7 +36614,7 @@
         <v>2</v>
       </c>
       <c r="N809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.3">
@@ -36658,7 +36658,7 @@
         <v>3</v>
       </c>
       <c r="N810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.3">
@@ -36702,7 +36702,7 @@
         <v>2</v>
       </c>
       <c r="N811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:14" x14ac:dyDescent="0.3">
@@ -36746,7 +36746,7 @@
         <v>3</v>
       </c>
       <c r="N812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.3">
@@ -36790,7 +36790,7 @@
         <v>3</v>
       </c>
       <c r="N813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:14" x14ac:dyDescent="0.3">
@@ -36834,7 +36834,7 @@
         <v>2</v>
       </c>
       <c r="N814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.3">
@@ -36878,7 +36878,7 @@
         <v>3</v>
       </c>
       <c r="N815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:14" x14ac:dyDescent="0.3">
@@ -36922,7 +36922,7 @@
         <v>2</v>
       </c>
       <c r="N816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:14" x14ac:dyDescent="0.3">
@@ -36966,7 +36966,7 @@
         <v>3</v>
       </c>
       <c r="N817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.3">
@@ -37010,7 +37010,7 @@
         <v>2</v>
       </c>
       <c r="N818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.3">
@@ -37054,7 +37054,7 @@
         <v>2</v>
       </c>
       <c r="N819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.3">
@@ -37098,7 +37098,7 @@
         <v>2</v>
       </c>
       <c r="N820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.3">
@@ -37142,7 +37142,7 @@
         <v>1</v>
       </c>
       <c r="N821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.3">
@@ -37186,7 +37186,7 @@
         <v>3</v>
       </c>
       <c r="N822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:14" x14ac:dyDescent="0.3">
@@ -37230,7 +37230,7 @@
         <v>2</v>
       </c>
       <c r="N823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.3">
@@ -37274,7 +37274,7 @@
         <v>3</v>
       </c>
       <c r="N824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.3">
@@ -37318,7 +37318,7 @@
         <v>2</v>
       </c>
       <c r="N825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.3">
@@ -37362,7 +37362,7 @@
         <v>2</v>
       </c>
       <c r="N826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.3">
@@ -37406,7 +37406,7 @@
         <v>2</v>
       </c>
       <c r="N827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:14" x14ac:dyDescent="0.3">
@@ -37450,7 +37450,7 @@
         <v>2</v>
       </c>
       <c r="N828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.3">
@@ -37494,7 +37494,7 @@
         <v>3</v>
       </c>
       <c r="N829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.3">
@@ -37538,7 +37538,7 @@
         <v>2</v>
       </c>
       <c r="N830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.3">
@@ -37582,7 +37582,7 @@
         <v>3</v>
       </c>
       <c r="N831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.3">
@@ -37626,7 +37626,7 @@
         <v>2</v>
       </c>
       <c r="N832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.3">
@@ -37670,7 +37670,7 @@
         <v>3</v>
       </c>
       <c r="N833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.3">
@@ -37714,7 +37714,7 @@
         <v>3</v>
       </c>
       <c r="N834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.3">
@@ -37758,7 +37758,7 @@
         <v>3</v>
       </c>
       <c r="N835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:14" x14ac:dyDescent="0.3">
@@ -37802,7 +37802,7 @@
         <v>1</v>
       </c>
       <c r="N836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.3">
@@ -37846,7 +37846,7 @@
         <v>2</v>
       </c>
       <c r="N837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:14" x14ac:dyDescent="0.3">
@@ -37890,7 +37890,7 @@
         <v>2</v>
       </c>
       <c r="N838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:14" x14ac:dyDescent="0.3">
@@ -37934,7 +37934,7 @@
         <v>3</v>
       </c>
       <c r="N839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:14" x14ac:dyDescent="0.3">
@@ -37978,7 +37978,7 @@
         <v>2</v>
       </c>
       <c r="N840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:14" x14ac:dyDescent="0.3">
@@ -38022,7 +38022,7 @@
         <v>2</v>
       </c>
       <c r="N841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.3">
@@ -38066,7 +38066,7 @@
         <v>3</v>
       </c>
       <c r="N842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.3">
@@ -38110,7 +38110,7 @@
         <v>2</v>
       </c>
       <c r="N843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:14" x14ac:dyDescent="0.3">
@@ -38154,7 +38154,7 @@
         <v>3</v>
       </c>
       <c r="N844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.3">
@@ -38198,7 +38198,7 @@
         <v>2</v>
       </c>
       <c r="N845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.3">
@@ -38242,7 +38242,7 @@
         <v>3</v>
       </c>
       <c r="N846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:14" x14ac:dyDescent="0.3">
@@ -38286,7 +38286,7 @@
         <v>1</v>
       </c>
       <c r="N847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:14" x14ac:dyDescent="0.3">
@@ -38330,7 +38330,7 @@
         <v>2</v>
       </c>
       <c r="N848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:14" x14ac:dyDescent="0.3">
@@ -38374,7 +38374,7 @@
         <v>2</v>
       </c>
       <c r="N849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:14" x14ac:dyDescent="0.3">
@@ -38418,7 +38418,7 @@
         <v>2</v>
       </c>
       <c r="N850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:14" x14ac:dyDescent="0.3">
@@ -38462,7 +38462,7 @@
         <v>3</v>
       </c>
       <c r="N851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:14" x14ac:dyDescent="0.3">
@@ -38506,7 +38506,7 @@
         <v>2</v>
       </c>
       <c r="N852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.3">
@@ -38550,7 +38550,7 @@
         <v>2</v>
       </c>
       <c r="N853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.3">
@@ -38594,7 +38594,7 @@
         <v>3</v>
       </c>
       <c r="N854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.3">
@@ -38638,7 +38638,7 @@
         <v>3</v>
       </c>
       <c r="N855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.3">
@@ -38682,7 +38682,7 @@
         <v>2</v>
       </c>
       <c r="N856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.3">
@@ -38726,7 +38726,7 @@
         <v>3</v>
       </c>
       <c r="N857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:14" x14ac:dyDescent="0.3">
@@ -38770,7 +38770,7 @@
         <v>2</v>
       </c>
       <c r="N858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:14" x14ac:dyDescent="0.3">
@@ -38814,7 +38814,7 @@
         <v>2</v>
       </c>
       <c r="N859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:14" x14ac:dyDescent="0.3">
@@ -38858,7 +38858,7 @@
         <v>2</v>
       </c>
       <c r="N860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:14" x14ac:dyDescent="0.3">
@@ -38902,7 +38902,7 @@
         <v>3</v>
       </c>
       <c r="N861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.3">
@@ -38946,7 +38946,7 @@
         <v>2</v>
       </c>
       <c r="N862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:14" x14ac:dyDescent="0.3">
@@ -38990,7 +38990,7 @@
         <v>2</v>
       </c>
       <c r="N863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.3">
@@ -39034,7 +39034,7 @@
         <v>3</v>
       </c>
       <c r="N864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.3">
@@ -39078,7 +39078,7 @@
         <v>3</v>
       </c>
       <c r="N865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:14" x14ac:dyDescent="0.3">
@@ -39122,7 +39122,7 @@
         <v>2</v>
       </c>
       <c r="N866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.3">
@@ -39166,7 +39166,7 @@
         <v>2</v>
       </c>
       <c r="N867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.3">
@@ -39210,7 +39210,7 @@
         <v>2</v>
       </c>
       <c r="N868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:14" x14ac:dyDescent="0.3">
@@ -39254,7 +39254,7 @@
         <v>2</v>
       </c>
       <c r="N869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.3">
@@ -39298,7 +39298,7 @@
         <v>2</v>
       </c>
       <c r="N870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.3">
@@ -39342,7 +39342,7 @@
         <v>2</v>
       </c>
       <c r="N871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.3">
@@ -39386,7 +39386,7 @@
         <v>2</v>
       </c>
       <c r="N872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.3">
@@ -39430,7 +39430,7 @@
         <v>2</v>
       </c>
       <c r="N873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.3">
@@ -39474,7 +39474,7 @@
         <v>3</v>
       </c>
       <c r="N874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.3">
@@ -39518,7 +39518,7 @@
         <v>1</v>
       </c>
       <c r="N875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:14" x14ac:dyDescent="0.3">
@@ -39562,7 +39562,7 @@
         <v>2</v>
       </c>
       <c r="N876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.3">
@@ -39606,7 +39606,7 @@
         <v>3</v>
       </c>
       <c r="N877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.3">
@@ -39650,7 +39650,7 @@
         <v>3</v>
       </c>
       <c r="N878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.3">
@@ -39694,7 +39694,7 @@
         <v>2</v>
       </c>
       <c r="N879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.3">
@@ -39738,7 +39738,7 @@
         <v>3</v>
       </c>
       <c r="N880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.3">
@@ -39782,7 +39782,7 @@
         <v>2</v>
       </c>
       <c r="N881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.3">
@@ -39826,7 +39826,7 @@
         <v>3</v>
       </c>
       <c r="N882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.3">
@@ -39870,7 +39870,7 @@
         <v>2</v>
       </c>
       <c r="N883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.3">
@@ -39914,7 +39914,7 @@
         <v>3</v>
       </c>
       <c r="N884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.3">
@@ -39958,7 +39958,7 @@
         <v>3</v>
       </c>
       <c r="N885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.3">
@@ -40002,7 +40002,7 @@
         <v>3</v>
       </c>
       <c r="N886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.3">
@@ -40046,7 +40046,7 @@
         <v>3</v>
       </c>
       <c r="N887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.3">
@@ -40090,7 +40090,7 @@
         <v>3</v>
       </c>
       <c r="N888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.3">
@@ -40134,7 +40134,7 @@
         <v>1</v>
       </c>
       <c r="N889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.3">
@@ -40178,7 +40178,7 @@
         <v>3</v>
       </c>
       <c r="N890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.3">
@@ -40222,7 +40222,7 @@
         <v>3</v>
       </c>
       <c r="N891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.3">
@@ -40266,7 +40266,7 @@
         <v>3</v>
       </c>
       <c r="N892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.3">
@@ -40310,7 +40310,7 @@
         <v>2</v>
       </c>
       <c r="N893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.3">
@@ -40354,7 +40354,7 @@
         <v>3</v>
       </c>
       <c r="N894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.3">
@@ -40398,7 +40398,7 @@
         <v>0</v>
       </c>
       <c r="N895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.3">
@@ -40442,7 +40442,7 @@
         <v>3</v>
       </c>
       <c r="N896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.3">
@@ -40486,7 +40486,7 @@
         <v>3</v>
       </c>
       <c r="N897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.3">
@@ -40530,7 +40530,7 @@
         <v>3</v>
       </c>
       <c r="N898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.3">
@@ -40574,7 +40574,7 @@
         <v>2</v>
       </c>
       <c r="N899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.3">
@@ -40618,7 +40618,7 @@
         <v>2</v>
       </c>
       <c r="N900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.3">
@@ -40662,7 +40662,7 @@
         <v>3</v>
       </c>
       <c r="N901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.3">
@@ -40706,7 +40706,7 @@
         <v>2</v>
       </c>
       <c r="N902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.3">
@@ -40750,7 +40750,7 @@
         <v>2</v>
       </c>
       <c r="N903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.3">
@@ -40794,7 +40794,7 @@
         <v>2</v>
       </c>
       <c r="N904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.3">
@@ -40838,7 +40838,7 @@
         <v>1</v>
       </c>
       <c r="N905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.3">
@@ -40882,7 +40882,7 @@
         <v>2</v>
       </c>
       <c r="N906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.3">
@@ -40926,7 +40926,7 @@
         <v>2</v>
       </c>
       <c r="N907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.3">
@@ -40970,7 +40970,7 @@
         <v>2</v>
       </c>
       <c r="N908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.3">
@@ -41014,7 +41014,7 @@
         <v>2</v>
       </c>
       <c r="N909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.3">
@@ -41058,7 +41058,7 @@
         <v>3</v>
       </c>
       <c r="N910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.3">
@@ -41102,7 +41102,7 @@
         <v>3</v>
       </c>
       <c r="N911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.3">
@@ -41146,7 +41146,7 @@
         <v>3</v>
       </c>
       <c r="N912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.3">
@@ -41190,7 +41190,7 @@
         <v>2</v>
       </c>
       <c r="N913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.3">
@@ -41234,7 +41234,7 @@
         <v>3</v>
       </c>
       <c r="N914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.3">
@@ -41278,7 +41278,7 @@
         <v>2</v>
       </c>
       <c r="N915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.3">
@@ -41322,7 +41322,7 @@
         <v>2</v>
       </c>
       <c r="N916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.3">
@@ -41366,7 +41366,7 @@
         <v>3</v>
       </c>
       <c r="N917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.3">
@@ -41410,7 +41410,7 @@
         <v>3</v>
       </c>
       <c r="N918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.3">
@@ -41454,7 +41454,7 @@
         <v>2</v>
       </c>
       <c r="N919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.3">
@@ -41498,7 +41498,7 @@
         <v>2</v>
       </c>
       <c r="N920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.3">
@@ -41542,7 +41542,7 @@
         <v>3</v>
       </c>
       <c r="N921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.3">
@@ -41586,7 +41586,7 @@
         <v>3</v>
       </c>
       <c r="N922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.3">
@@ -41630,7 +41630,7 @@
         <v>3</v>
       </c>
       <c r="N923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.3">
@@ -41674,7 +41674,7 @@
         <v>3</v>
       </c>
       <c r="N924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.3">
@@ -41718,7 +41718,7 @@
         <v>2</v>
       </c>
       <c r="N925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.3">
@@ -41762,7 +41762,7 @@
         <v>2</v>
       </c>
       <c r="N926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.3">
@@ -41806,7 +41806,7 @@
         <v>3</v>
       </c>
       <c r="N927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.3">
@@ -41850,7 +41850,7 @@
         <v>2</v>
       </c>
       <c r="N928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.3">
@@ -41894,7 +41894,7 @@
         <v>3</v>
       </c>
       <c r="N929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.3">
@@ -41938,7 +41938,7 @@
         <v>3</v>
       </c>
       <c r="N930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.3">
@@ -41982,7 +41982,7 @@
         <v>3</v>
       </c>
       <c r="N931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.3">
@@ -42026,7 +42026,7 @@
         <v>3</v>
       </c>
       <c r="N932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.3">
@@ -42070,7 +42070,7 @@
         <v>3</v>
       </c>
       <c r="N933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.3">
@@ -42114,7 +42114,7 @@
         <v>2</v>
       </c>
       <c r="N934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.3">
@@ -42158,7 +42158,7 @@
         <v>3</v>
       </c>
       <c r="N935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.3">
@@ -42202,7 +42202,7 @@
         <v>2</v>
       </c>
       <c r="N936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.3">
@@ -42246,7 +42246,7 @@
         <v>2</v>
       </c>
       <c r="N937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.3">
@@ -42290,7 +42290,7 @@
         <v>2</v>
       </c>
       <c r="N938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.3">

--- a/heart_0531.xlsx
+++ b/heart_0531.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaole\Desktop\YYY\交付物\oiAAA\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AB974-E751-4A82-B4A2-B595F2F833B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445575F-C1AA-4910-8057-24029E749F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABD86A05-5CBE-4290-A710-511438F33171}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89D39C7-8B8F-4A45-92B1-96838196B392}">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="O408" sqref="O408"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O4" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -9818,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="N200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -9862,7 +9862,7 @@
         <v>3</v>
       </c>
       <c r="N201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -9906,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="N202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -9950,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="N203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>3</v>
       </c>
       <c r="N204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -10038,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="N205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
@@ -10082,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="N206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -10126,7 +10126,7 @@
         <v>2</v>
       </c>
       <c r="N207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="N208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
@@ -10214,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="N209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -10258,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="N210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
@@ -10302,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="N211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -10346,7 +10346,7 @@
         <v>3</v>
       </c>
       <c r="N212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="N213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
@@ -10434,7 +10434,7 @@
         <v>3</v>
       </c>
       <c r="N214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -10478,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="N215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -10522,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="N216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -10566,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="N217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -10610,7 +10610,7 @@
         <v>3</v>
       </c>
       <c r="N218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
@@ -10654,7 +10654,7 @@
         <v>2</v>
       </c>
       <c r="N219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
@@ -10698,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="N220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
@@ -10742,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="N221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
@@ -10786,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="N222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
@@ -10830,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="N223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
@@ -10874,7 +10874,7 @@
         <v>2</v>
       </c>
       <c r="N224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
@@ -10918,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
@@ -10962,7 +10962,7 @@
         <v>2</v>
       </c>
       <c r="N226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -11006,7 +11006,7 @@
         <v>3</v>
       </c>
       <c r="N227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="N228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
@@ -11094,7 +11094,7 @@
         <v>2</v>
       </c>
       <c r="N229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
@@ -11138,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="N230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
@@ -11182,7 +11182,7 @@
         <v>3</v>
       </c>
       <c r="N231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
@@ -11226,7 +11226,7 @@
         <v>3</v>
       </c>
       <c r="N232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -11270,7 +11270,7 @@
         <v>2</v>
       </c>
       <c r="N233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -11314,7 +11314,7 @@
         <v>3</v>
       </c>
       <c r="N234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
@@ -11358,7 +11358,7 @@
         <v>2</v>
       </c>
       <c r="N235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
@@ -11402,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="N236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
@@ -11446,7 +11446,7 @@
         <v>3</v>
       </c>
       <c r="N237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
@@ -11490,7 +11490,7 @@
         <v>2</v>
       </c>
       <c r="N238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
@@ -11534,7 +11534,7 @@
         <v>3</v>
       </c>
       <c r="N239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="N240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -11622,7 +11622,7 @@
         <v>2</v>
       </c>
       <c r="N241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -11666,7 +11666,7 @@
         <v>2</v>
       </c>
       <c r="N242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -11710,7 +11710,7 @@
         <v>3</v>
       </c>
       <c r="N243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -11754,7 +11754,7 @@
         <v>2</v>
       </c>
       <c r="N244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -11798,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="N245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -11842,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="N246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="N408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
@@ -19014,7 +19014,7 @@
         <v>3</v>
       </c>
       <c r="N409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
@@ -19058,7 +19058,7 @@
         <v>2</v>
       </c>
       <c r="N410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
@@ -19102,7 +19102,7 @@
         <v>2</v>
       </c>
       <c r="N411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
@@ -19146,7 +19146,7 @@
         <v>2</v>
       </c>
       <c r="N412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
@@ -19190,7 +19190,7 @@
         <v>2</v>
       </c>
       <c r="N413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
@@ -19234,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="N414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
@@ -19278,7 +19278,7 @@
         <v>2</v>
       </c>
       <c r="N415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
@@ -19322,7 +19322,7 @@
         <v>3</v>
       </c>
       <c r="N416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
@@ -19366,7 +19366,7 @@
         <v>2</v>
       </c>
       <c r="N417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
@@ -19410,7 +19410,7 @@
         <v>2</v>
       </c>
       <c r="N418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
@@ -19454,7 +19454,7 @@
         <v>2</v>
       </c>
       <c r="N419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
@@ -19498,7 +19498,7 @@
         <v>2</v>
       </c>
       <c r="N420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
@@ -19542,7 +19542,7 @@
         <v>2</v>
       </c>
       <c r="N421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
@@ -19586,7 +19586,7 @@
         <v>2</v>
       </c>
       <c r="N422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
@@ -19630,7 +19630,7 @@
         <v>2</v>
       </c>
       <c r="N423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
@@ -19674,7 +19674,7 @@
         <v>2</v>
       </c>
       <c r="N424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
@@ -19718,7 +19718,7 @@
         <v>2</v>
       </c>
       <c r="N425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
@@ -19762,7 +19762,7 @@
         <v>3</v>
       </c>
       <c r="N426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
@@ -19806,7 +19806,7 @@
         <v>3</v>
       </c>
       <c r="N427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
@@ -19850,7 +19850,7 @@
         <v>2</v>
       </c>
       <c r="N428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
@@ -19894,7 +19894,7 @@
         <v>2</v>
       </c>
       <c r="N429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
@@ -19938,7 +19938,7 @@
         <v>3</v>
       </c>
       <c r="N430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="N431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
@@ -20026,7 +20026,7 @@
         <v>3</v>
       </c>
       <c r="N432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
@@ -20070,7 +20070,7 @@
         <v>3</v>
       </c>
       <c r="N433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
@@ -20114,7 +20114,7 @@
         <v>2</v>
       </c>
       <c r="N434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
@@ -20158,7 +20158,7 @@
         <v>2</v>
       </c>
       <c r="N435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
@@ -20202,7 +20202,7 @@
         <v>2</v>
       </c>
       <c r="N436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
@@ -20246,7 +20246,7 @@
         <v>2</v>
       </c>
       <c r="N437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
@@ -20290,7 +20290,7 @@
         <v>2</v>
       </c>
       <c r="N438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
@@ -20334,7 +20334,7 @@
         <v>3</v>
       </c>
       <c r="N439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
@@ -20378,7 +20378,7 @@
         <v>2</v>
       </c>
       <c r="N440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
@@ -20422,7 +20422,7 @@
         <v>2</v>
       </c>
       <c r="N441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
@@ -20466,7 +20466,7 @@
         <v>2</v>
       </c>
       <c r="N442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
@@ -20510,7 +20510,7 @@
         <v>3</v>
       </c>
       <c r="N443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="N444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
@@ -20598,7 +20598,7 @@
         <v>2</v>
       </c>
       <c r="N445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
@@ -20642,7 +20642,7 @@
         <v>2</v>
       </c>
       <c r="N446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
@@ -20686,7 +20686,7 @@
         <v>2</v>
       </c>
       <c r="N447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
@@ -20730,7 +20730,7 @@
         <v>2</v>
       </c>
       <c r="N448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -20774,7 +20774,7 @@
         <v>3</v>
       </c>
       <c r="N449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -20818,7 +20818,7 @@
         <v>2</v>
       </c>
       <c r="N450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -20862,7 +20862,7 @@
         <v>2</v>
       </c>
       <c r="N451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -20906,7 +20906,7 @@
         <v>3</v>
       </c>
       <c r="N452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -20950,7 +20950,7 @@
         <v>2</v>
       </c>
       <c r="N453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -20994,7 +20994,7 @@
         <v>3</v>
       </c>
       <c r="N454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -21038,7 +21038,7 @@
         <v>2</v>
       </c>
       <c r="N455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -21082,7 +21082,7 @@
         <v>3</v>
       </c>
       <c r="N456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -21126,7 +21126,7 @@
         <v>2</v>
       </c>
       <c r="N457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -21170,7 +21170,7 @@
         <v>2</v>
       </c>
       <c r="N458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -21214,7 +21214,7 @@
         <v>2</v>
       </c>
       <c r="N459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -21258,7 +21258,7 @@
         <v>2</v>
       </c>
       <c r="N460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -21302,7 +21302,7 @@
         <v>2</v>
       </c>
       <c r="N461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -21346,7 +21346,7 @@
         <v>3</v>
       </c>
       <c r="N462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -21390,7 +21390,7 @@
         <v>2</v>
       </c>
       <c r="N463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -21434,7 +21434,7 @@
         <v>1</v>
       </c>
       <c r="N464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
@@ -21478,7 +21478,7 @@
         <v>3</v>
       </c>
       <c r="N465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
@@ -21522,7 +21522,7 @@
         <v>3</v>
       </c>
       <c r="N466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
@@ -21566,7 +21566,7 @@
         <v>2</v>
       </c>
       <c r="N467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
@@ -21610,7 +21610,7 @@
         <v>2</v>
       </c>
       <c r="N468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
@@ -21654,7 +21654,7 @@
         <v>2</v>
       </c>
       <c r="N469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
@@ -21698,7 +21698,7 @@
         <v>2</v>
       </c>
       <c r="N470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
@@ -21742,7 +21742,7 @@
         <v>2</v>
       </c>
       <c r="N471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
@@ -21786,7 +21786,7 @@
         <v>2</v>
       </c>
       <c r="N472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
@@ -21830,7 +21830,7 @@
         <v>3</v>
       </c>
       <c r="N473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
@@ -21874,7 +21874,7 @@
         <v>2</v>
       </c>
       <c r="N474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
@@ -21918,7 +21918,7 @@
         <v>2</v>
       </c>
       <c r="N475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
@@ -21962,7 +21962,7 @@
         <v>3</v>
       </c>
       <c r="N476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -22006,7 +22006,7 @@
         <v>3</v>
       </c>
       <c r="N477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
@@ -22050,7 +22050,7 @@
         <v>3</v>
       </c>
       <c r="N478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
@@ -22094,7 +22094,7 @@
         <v>3</v>
       </c>
       <c r="N479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
@@ -22138,7 +22138,7 @@
         <v>2</v>
       </c>
       <c r="N480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
@@ -22182,7 +22182,7 @@
         <v>3</v>
       </c>
       <c r="N481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.3">
@@ -22226,7 +22226,7 @@
         <v>3</v>
       </c>
       <c r="N482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.3">
@@ -22270,7 +22270,7 @@
         <v>3</v>
       </c>
       <c r="N483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.3">
@@ -22314,7 +22314,7 @@
         <v>3</v>
       </c>
       <c r="N484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.3">
@@ -22358,7 +22358,7 @@
         <v>2</v>
       </c>
       <c r="N485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.3">
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="N486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
@@ -22446,7 +22446,7 @@
         <v>3</v>
       </c>
       <c r="N487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.3">
@@ -22490,7 +22490,7 @@
         <v>3</v>
       </c>
       <c r="N488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
@@ -22534,7 +22534,7 @@
         <v>3</v>
       </c>
       <c r="N489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.3">
@@ -22578,7 +22578,7 @@
         <v>2</v>
       </c>
       <c r="N490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.3">
@@ -22622,7 +22622,7 @@
         <v>2</v>
       </c>
       <c r="N491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.3">
@@ -22666,7 +22666,7 @@
         <v>2</v>
       </c>
       <c r="N492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.3">
@@ -22710,7 +22710,7 @@
         <v>2</v>
       </c>
       <c r="N493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
@@ -22754,7 +22754,7 @@
         <v>3</v>
       </c>
       <c r="N494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.3">
@@ -22798,7 +22798,7 @@
         <v>3</v>
       </c>
       <c r="N495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
@@ -22842,7 +22842,7 @@
         <v>2</v>
       </c>
       <c r="N496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.3">
@@ -22886,7 +22886,7 @@
         <v>3</v>
       </c>
       <c r="N497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.3">
@@ -22930,7 +22930,7 @@
         <v>3</v>
       </c>
       <c r="N498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.3">
@@ -22974,7 +22974,7 @@
         <v>2</v>
       </c>
       <c r="N499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.3">
@@ -23018,7 +23018,7 @@
         <v>2</v>
       </c>
       <c r="N500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.3">
@@ -23062,7 +23062,7 @@
         <v>2</v>
       </c>
       <c r="N501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.3">
@@ -23106,7 +23106,7 @@
         <v>2</v>
       </c>
       <c r="N502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.3">
@@ -23150,7 +23150,7 @@
         <v>2</v>
       </c>
       <c r="N503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.3">
@@ -23194,7 +23194,7 @@
         <v>2</v>
       </c>
       <c r="N504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.3">
@@ -23238,7 +23238,7 @@
         <v>2</v>
       </c>
       <c r="N505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.3">
@@ -23282,7 +23282,7 @@
         <v>2</v>
       </c>
       <c r="N506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.3">
@@ -23326,7 +23326,7 @@
         <v>2</v>
       </c>
       <c r="N507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.3">
@@ -23370,7 +23370,7 @@
         <v>3</v>
       </c>
       <c r="N508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.3">
@@ -23414,7 +23414,7 @@
         <v>2</v>
       </c>
       <c r="N509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.3">
@@ -23458,7 +23458,7 @@
         <v>3</v>
       </c>
       <c r="N510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.3">
@@ -23502,7 +23502,7 @@
         <v>2</v>
       </c>
       <c r="N511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.3">
@@ -23546,7 +23546,7 @@
         <v>2</v>
       </c>
       <c r="N512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.3">
@@ -23590,7 +23590,7 @@
         <v>3</v>
       </c>
       <c r="N513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.3">
@@ -23634,7 +23634,7 @@
         <v>2</v>
       </c>
       <c r="N514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.3">
@@ -23678,7 +23678,7 @@
         <v>2</v>
       </c>
       <c r="N515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.3">
@@ -23722,7 +23722,7 @@
         <v>2</v>
       </c>
       <c r="N516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.3">
@@ -23766,7 +23766,7 @@
         <v>3</v>
       </c>
       <c r="N517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.3">
@@ -23810,7 +23810,7 @@
         <v>3</v>
       </c>
       <c r="N518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.3">
@@ -23854,7 +23854,7 @@
         <v>2</v>
       </c>
       <c r="N519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.3">
@@ -23898,7 +23898,7 @@
         <v>3</v>
       </c>
       <c r="N520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.3">
@@ -23942,7 +23942,7 @@
         <v>3</v>
       </c>
       <c r="N521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.3">
@@ -23986,7 +23986,7 @@
         <v>3</v>
       </c>
       <c r="N522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.3">
@@ -24030,7 +24030,7 @@
         <v>3</v>
       </c>
       <c r="N523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.3">
@@ -24074,7 +24074,7 @@
         <v>2</v>
       </c>
       <c r="N524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.3">
@@ -24118,7 +24118,7 @@
         <v>3</v>
       </c>
       <c r="N525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.3">
@@ -24162,7 +24162,7 @@
         <v>3</v>
       </c>
       <c r="N526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.3">
@@ -24206,7 +24206,7 @@
         <v>2</v>
       </c>
       <c r="N527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.3">
@@ -24250,7 +24250,7 @@
         <v>3</v>
       </c>
       <c r="N528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.3">
@@ -24294,7 +24294,7 @@
         <v>2</v>
       </c>
       <c r="N529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.3">
@@ -24338,7 +24338,7 @@
         <v>3</v>
       </c>
       <c r="N530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.3">
@@ -24382,7 +24382,7 @@
         <v>2</v>
       </c>
       <c r="N531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.3">
@@ -24426,7 +24426,7 @@
         <v>3</v>
       </c>
       <c r="N532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.3">
@@ -24470,7 +24470,7 @@
         <v>2</v>
       </c>
       <c r="N533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.3">
@@ -24514,7 +24514,7 @@
         <v>2</v>
       </c>
       <c r="N534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.3">
@@ -24558,7 +24558,7 @@
         <v>2</v>
       </c>
       <c r="N535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.3">
@@ -24602,7 +24602,7 @@
         <v>2</v>
       </c>
       <c r="N536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.3">
@@ -24646,7 +24646,7 @@
         <v>2</v>
       </c>
       <c r="N537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.3">
@@ -24690,7 +24690,7 @@
         <v>2</v>
       </c>
       <c r="N538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.3">
@@ -24734,7 +24734,7 @@
         <v>2</v>
       </c>
       <c r="N539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.3">
@@ -24778,7 +24778,7 @@
         <v>3</v>
       </c>
       <c r="N540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.3">
@@ -24822,7 +24822,7 @@
         <v>3</v>
       </c>
       <c r="N541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.3">
@@ -24866,7 +24866,7 @@
         <v>3</v>
       </c>
       <c r="N542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.3">
@@ -24910,7 +24910,7 @@
         <v>2</v>
       </c>
       <c r="N543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.3">
@@ -24954,7 +24954,7 @@
         <v>2</v>
       </c>
       <c r="N544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.3">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="N545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.3">
@@ -25042,7 +25042,7 @@
         <v>2</v>
       </c>
       <c r="N546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.3">
@@ -25086,7 +25086,7 @@
         <v>3</v>
       </c>
       <c r="N547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.3">
@@ -25130,7 +25130,7 @@
         <v>2</v>
       </c>
       <c r="N548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.3">
@@ -25174,7 +25174,7 @@
         <v>2</v>
       </c>
       <c r="N549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.3">
@@ -25218,7 +25218,7 @@
         <v>2</v>
       </c>
       <c r="N550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.3">
@@ -25262,7 +25262,7 @@
         <v>3</v>
       </c>
       <c r="N551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.3">
@@ -25306,7 +25306,7 @@
         <v>3</v>
       </c>
       <c r="N552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.3">
@@ -25350,7 +25350,7 @@
         <v>2</v>
       </c>
       <c r="N553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.3">
@@ -25394,7 +25394,7 @@
         <v>3</v>
       </c>
       <c r="N554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.3">
@@ -25438,7 +25438,7 @@
         <v>2</v>
       </c>
       <c r="N555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.3">
@@ -25482,7 +25482,7 @@
         <v>3</v>
       </c>
       <c r="N556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.3">
@@ -25526,7 +25526,7 @@
         <v>3</v>
       </c>
       <c r="N557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.3">
@@ -25570,7 +25570,7 @@
         <v>3</v>
       </c>
       <c r="N558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.3">
@@ -25614,7 +25614,7 @@
         <v>2</v>
       </c>
       <c r="N559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.3">
@@ -25658,7 +25658,7 @@
         <v>2</v>
       </c>
       <c r="N560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.3">
@@ -25702,7 +25702,7 @@
         <v>2</v>
       </c>
       <c r="N561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.3">
@@ -25746,7 +25746,7 @@
         <v>2</v>
       </c>
       <c r="N562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.3">
@@ -25790,7 +25790,7 @@
         <v>2</v>
       </c>
       <c r="N563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.3">
@@ -25834,7 +25834,7 @@
         <v>2</v>
       </c>
       <c r="N564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.3">
@@ -25878,7 +25878,7 @@
         <v>2</v>
       </c>
       <c r="N565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.3">
@@ -25922,7 +25922,7 @@
         <v>1</v>
       </c>
       <c r="N566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.3">
@@ -25966,7 +25966,7 @@
         <v>2</v>
       </c>
       <c r="N567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.3">
@@ -26010,7 +26010,7 @@
         <v>2</v>
       </c>
       <c r="N568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.3">
@@ -26054,7 +26054,7 @@
         <v>2</v>
       </c>
       <c r="N569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.3">
@@ -26098,7 +26098,7 @@
         <v>2</v>
       </c>
       <c r="N570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.3">
@@ -26142,7 +26142,7 @@
         <v>3</v>
       </c>
       <c r="N571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.3">
@@ -26186,7 +26186,7 @@
         <v>2</v>
       </c>
       <c r="N572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.3">
@@ -26230,7 +26230,7 @@
         <v>3</v>
       </c>
       <c r="N573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.3">
@@ -26274,7 +26274,7 @@
         <v>2</v>
       </c>
       <c r="N574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.3">
@@ -26318,7 +26318,7 @@
         <v>2</v>
       </c>
       <c r="N575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.3">
@@ -26362,7 +26362,7 @@
         <v>3</v>
       </c>
       <c r="N576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.3">
@@ -26406,7 +26406,7 @@
         <v>2</v>
       </c>
       <c r="N577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.3">
@@ -26450,7 +26450,7 @@
         <v>3</v>
       </c>
       <c r="N578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.3">
@@ -26494,7 +26494,7 @@
         <v>2</v>
       </c>
       <c r="N579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.3">
@@ -26538,7 +26538,7 @@
         <v>2</v>
       </c>
       <c r="N580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.3">
@@ -26582,7 +26582,7 @@
         <v>3</v>
       </c>
       <c r="N581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.3">
@@ -26626,7 +26626,7 @@
         <v>3</v>
       </c>
       <c r="N582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.3">
@@ -26670,7 +26670,7 @@
         <v>2</v>
       </c>
       <c r="N583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.3">
@@ -26714,7 +26714,7 @@
         <v>2</v>
       </c>
       <c r="N584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.3">
@@ -26758,7 +26758,7 @@
         <v>3</v>
       </c>
       <c r="N585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.3">
@@ -26802,7 +26802,7 @@
         <v>3</v>
       </c>
       <c r="N586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.3">
@@ -26846,7 +26846,7 @@
         <v>3</v>
       </c>
       <c r="N587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.3">
@@ -26890,7 +26890,7 @@
         <v>3</v>
       </c>
       <c r="N588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.3">
@@ -26934,7 +26934,7 @@
         <v>1</v>
       </c>
       <c r="N589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.3">
@@ -26978,7 +26978,7 @@
         <v>3</v>
       </c>
       <c r="N590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.3">
@@ -27022,7 +27022,7 @@
         <v>2</v>
       </c>
       <c r="N591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.3">
@@ -27066,7 +27066,7 @@
         <v>2</v>
       </c>
       <c r="N592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.3">
@@ -27110,7 +27110,7 @@
         <v>2</v>
       </c>
       <c r="N593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.3">
@@ -27154,7 +27154,7 @@
         <v>3</v>
       </c>
       <c r="N594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.3">
@@ -27198,7 +27198,7 @@
         <v>2</v>
       </c>
       <c r="N595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.3">
@@ -27242,7 +27242,7 @@
         <v>1</v>
       </c>
       <c r="N596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.3">
@@ -27286,7 +27286,7 @@
         <v>3</v>
       </c>
       <c r="N597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.3">
@@ -27330,7 +27330,7 @@
         <v>2</v>
       </c>
       <c r="N598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.3">
@@ -27374,7 +27374,7 @@
         <v>2</v>
       </c>
       <c r="N599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.3">
@@ -27418,7 +27418,7 @@
         <v>2</v>
       </c>
       <c r="N600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.3">
@@ -27462,7 +27462,7 @@
         <v>2</v>
       </c>
       <c r="N601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.3">
@@ -27506,7 +27506,7 @@
         <v>3</v>
       </c>
       <c r="N602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.3">
@@ -27550,7 +27550,7 @@
         <v>3</v>
       </c>
       <c r="N603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.3">
@@ -27594,7 +27594,7 @@
         <v>2</v>
       </c>
       <c r="N604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.3">
@@ -27638,7 +27638,7 @@
         <v>2</v>
       </c>
       <c r="N605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.3">
@@ -27682,7 +27682,7 @@
         <v>2</v>
       </c>
       <c r="N606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.3">
@@ -27726,7 +27726,7 @@
         <v>2</v>
       </c>
       <c r="N607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.3">
@@ -27770,7 +27770,7 @@
         <v>2</v>
       </c>
       <c r="N608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.3">
@@ -27814,7 +27814,7 @@
         <v>1</v>
       </c>
       <c r="N609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.3">
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
       <c r="N610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.3">
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="N611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.3">
@@ -27946,7 +27946,7 @@
         <v>3</v>
       </c>
       <c r="N612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.3">
@@ -27990,7 +27990,7 @@
         <v>3</v>
       </c>
       <c r="N613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.3">
@@ -28034,7 +28034,7 @@
         <v>1</v>
       </c>
       <c r="N614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.3">
@@ -28078,7 +28078,7 @@
         <v>3</v>
       </c>
       <c r="N615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.3">
@@ -28122,7 +28122,7 @@
         <v>3</v>
       </c>
       <c r="N616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.3">
@@ -28166,7 +28166,7 @@
         <v>2</v>
       </c>
       <c r="N617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.3">
@@ -28210,7 +28210,7 @@
         <v>2</v>
       </c>
       <c r="N618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.3">
@@ -28254,7 +28254,7 @@
         <v>2</v>
       </c>
       <c r="N619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.3">
@@ -28298,7 +28298,7 @@
         <v>2</v>
       </c>
       <c r="N620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.3">
@@ -28342,7 +28342,7 @@
         <v>1</v>
       </c>
       <c r="N621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.3">
@@ -28386,7 +28386,7 @@
         <v>3</v>
       </c>
       <c r="N622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.3">
@@ -28430,7 +28430,7 @@
         <v>3</v>
       </c>
       <c r="N623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.3">
@@ -28474,7 +28474,7 @@
         <v>2</v>
       </c>
       <c r="N624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.3">
@@ -28518,7 +28518,7 @@
         <v>2</v>
       </c>
       <c r="N625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.3">
@@ -28562,7 +28562,7 @@
         <v>3</v>
       </c>
       <c r="N626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.3">
@@ -28606,7 +28606,7 @@
         <v>3</v>
       </c>
       <c r="N627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.3">
@@ -28650,7 +28650,7 @@
         <v>3</v>
       </c>
       <c r="N628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.3">
@@ -28694,7 +28694,7 @@
         <v>3</v>
       </c>
       <c r="N629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.3">
@@ -28738,7 +28738,7 @@
         <v>2</v>
       </c>
       <c r="N630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.3">
@@ -28782,7 +28782,7 @@
         <v>2</v>
       </c>
       <c r="N631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.3">
@@ -28826,7 +28826,7 @@
         <v>3</v>
       </c>
       <c r="N632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.3">
@@ -28870,7 +28870,7 @@
         <v>2</v>
       </c>
       <c r="N633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.3">
@@ -28914,7 +28914,7 @@
         <v>2</v>
       </c>
       <c r="N634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.3">
@@ -28958,7 +28958,7 @@
         <v>2</v>
       </c>
       <c r="N635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.3">
@@ -29002,7 +29002,7 @@
         <v>3</v>
       </c>
       <c r="N636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.3">
@@ -29046,7 +29046,7 @@
         <v>2</v>
       </c>
       <c r="N637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.3">
@@ -29090,7 +29090,7 @@
         <v>2</v>
       </c>
       <c r="N638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.3">
@@ -29134,7 +29134,7 @@
         <v>2</v>
       </c>
       <c r="N639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.3">
@@ -29178,7 +29178,7 @@
         <v>2</v>
       </c>
       <c r="N640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.3">
@@ -29222,7 +29222,7 @@
         <v>2</v>
       </c>
       <c r="N641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.3">
@@ -29266,7 +29266,7 @@
         <v>2</v>
       </c>
       <c r="N642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.3">
@@ -29310,7 +29310,7 @@
         <v>3</v>
       </c>
       <c r="N643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.3">
@@ -29354,7 +29354,7 @@
         <v>3</v>
       </c>
       <c r="N644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.3">
@@ -29398,7 +29398,7 @@
         <v>3</v>
       </c>
       <c r="N645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.3">
@@ -29442,7 +29442,7 @@
         <v>2</v>
       </c>
       <c r="N646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.3">
@@ -29486,7 +29486,7 @@
         <v>3</v>
       </c>
       <c r="N647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.3">
@@ -29530,7 +29530,7 @@
         <v>2</v>
       </c>
       <c r="N648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.3">
@@ -29574,7 +29574,7 @@
         <v>2</v>
       </c>
       <c r="N649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.3">
@@ -29618,7 +29618,7 @@
         <v>2</v>
       </c>
       <c r="N650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.3">
@@ -29662,7 +29662,7 @@
         <v>2</v>
       </c>
       <c r="N651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.3">
@@ -29706,7 +29706,7 @@
         <v>3</v>
       </c>
       <c r="N652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.3">
@@ -29750,7 +29750,7 @@
         <v>2</v>
       </c>
       <c r="N653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.3">
@@ -29794,7 +29794,7 @@
         <v>2</v>
       </c>
       <c r="N654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.3">
@@ -29838,7 +29838,7 @@
         <v>3</v>
       </c>
       <c r="N655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.3">
@@ -29882,7 +29882,7 @@
         <v>2</v>
       </c>
       <c r="N656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.3">
@@ -29926,7 +29926,7 @@
         <v>2</v>
       </c>
       <c r="N657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.3">
@@ -29970,7 +29970,7 @@
         <v>2</v>
       </c>
       <c r="N658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.3">
@@ -30014,7 +30014,7 @@
         <v>2</v>
       </c>
       <c r="N659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.3">
@@ -30058,7 +30058,7 @@
         <v>3</v>
       </c>
       <c r="N660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.3">
@@ -30102,7 +30102,7 @@
         <v>2</v>
       </c>
       <c r="N661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.3">
@@ -30146,7 +30146,7 @@
         <v>2</v>
       </c>
       <c r="N662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.3">
@@ -30190,7 +30190,7 @@
         <v>1</v>
       </c>
       <c r="N663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.3">
@@ -30234,7 +30234,7 @@
         <v>2</v>
       </c>
       <c r="N664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.3">
@@ -30278,7 +30278,7 @@
         <v>2</v>
       </c>
       <c r="N665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.3">
@@ -30322,7 +30322,7 @@
         <v>2</v>
       </c>
       <c r="N666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
@@ -30366,7 +30366,7 @@
         <v>2</v>
       </c>
       <c r="N667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.3">
@@ -30410,7 +30410,7 @@
         <v>2</v>
       </c>
       <c r="N668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.3">
@@ -30454,7 +30454,7 @@
         <v>3</v>
       </c>
       <c r="N669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.3">
@@ -30498,7 +30498,7 @@
         <v>2</v>
       </c>
       <c r="N670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.3">
@@ -30542,7 +30542,7 @@
         <v>1</v>
       </c>
       <c r="N671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.3">
@@ -30586,7 +30586,7 @@
         <v>2</v>
       </c>
       <c r="N672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.3">
@@ -30630,7 +30630,7 @@
         <v>3</v>
       </c>
       <c r="N673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.3">
@@ -30674,7 +30674,7 @@
         <v>3</v>
       </c>
       <c r="N674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.3">
@@ -30718,7 +30718,7 @@
         <v>3</v>
       </c>
       <c r="N675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.3">
@@ -30762,7 +30762,7 @@
         <v>3</v>
       </c>
       <c r="N676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.3">
@@ -30806,7 +30806,7 @@
         <v>3</v>
       </c>
       <c r="N677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.3">
@@ -30850,7 +30850,7 @@
         <v>3</v>
       </c>
       <c r="N678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.3">
@@ -30894,7 +30894,7 @@
         <v>3</v>
       </c>
       <c r="N679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.3">
@@ -30938,7 +30938,7 @@
         <v>2</v>
       </c>
       <c r="N680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.3">
@@ -30982,7 +30982,7 @@
         <v>3</v>
       </c>
       <c r="N681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.3">
@@ -31026,7 +31026,7 @@
         <v>2</v>
       </c>
       <c r="N682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.3">
@@ -31070,7 +31070,7 @@
         <v>3</v>
       </c>
       <c r="N683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.3">
@@ -31114,7 +31114,7 @@
         <v>1</v>
       </c>
       <c r="N684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.3">
@@ -31158,7 +31158,7 @@
         <v>3</v>
       </c>
       <c r="N685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.3">
@@ -31202,7 +31202,7 @@
         <v>2</v>
       </c>
       <c r="N686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.3">
@@ -31246,7 +31246,7 @@
         <v>3</v>
       </c>
       <c r="N687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.3">
@@ -31290,7 +31290,7 @@
         <v>0</v>
       </c>
       <c r="N688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.3">
@@ -31334,7 +31334,7 @@
         <v>3</v>
       </c>
       <c r="N689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.3">
@@ -31378,7 +31378,7 @@
         <v>3</v>
       </c>
       <c r="N690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.3">
@@ -31422,7 +31422,7 @@
         <v>2</v>
       </c>
       <c r="N691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.3">
@@ -31466,7 +31466,7 @@
         <v>3</v>
       </c>
       <c r="N692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.3">
@@ -31510,7 +31510,7 @@
         <v>2</v>
       </c>
       <c r="N693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.3">
@@ -31554,7 +31554,7 @@
         <v>3</v>
       </c>
       <c r="N694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.3">
@@ -31598,7 +31598,7 @@
         <v>2</v>
       </c>
       <c r="N695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.3">
@@ -31642,7 +31642,7 @@
         <v>3</v>
       </c>
       <c r="N696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.3">
@@ -31686,7 +31686,7 @@
         <v>3</v>
       </c>
       <c r="N697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.3">
@@ -31730,7 +31730,7 @@
         <v>2</v>
       </c>
       <c r="N698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.3">
@@ -31774,7 +31774,7 @@
         <v>3</v>
       </c>
       <c r="N699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.3">
@@ -31818,7 +31818,7 @@
         <v>2</v>
       </c>
       <c r="N700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.3">
@@ -31862,7 +31862,7 @@
         <v>3</v>
       </c>
       <c r="N701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.3">
@@ -31906,7 +31906,7 @@
         <v>2</v>
       </c>
       <c r="N702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.3">
@@ -31950,7 +31950,7 @@
         <v>3</v>
       </c>
       <c r="N703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.3">
@@ -31994,7 +31994,7 @@
         <v>2</v>
       </c>
       <c r="N704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.3">
@@ -32038,7 +32038,7 @@
         <v>1</v>
       </c>
       <c r="N705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.3">
@@ -32082,7 +32082,7 @@
         <v>3</v>
       </c>
       <c r="N706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.3">
@@ -32126,7 +32126,7 @@
         <v>3</v>
       </c>
       <c r="N707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.3">
@@ -32170,7 +32170,7 @@
         <v>3</v>
       </c>
       <c r="N708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.3">
@@ -32214,7 +32214,7 @@
         <v>2</v>
       </c>
       <c r="N709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.3">
@@ -32258,7 +32258,7 @@
         <v>2</v>
       </c>
       <c r="N710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.3">
@@ -32302,7 +32302,7 @@
         <v>3</v>
       </c>
       <c r="N711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.3">
@@ -32346,7 +32346,7 @@
         <v>3</v>
       </c>
       <c r="N712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.3">
@@ -32390,7 +32390,7 @@
         <v>3</v>
       </c>
       <c r="N713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.3">
@@ -32434,7 +32434,7 @@
         <v>2</v>
       </c>
       <c r="N714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.3">
@@ -32478,7 +32478,7 @@
         <v>2</v>
       </c>
       <c r="N715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.3">
@@ -32522,7 +32522,7 @@
         <v>2</v>
       </c>
       <c r="N716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.3">
@@ -32566,7 +32566,7 @@
         <v>2</v>
       </c>
       <c r="N717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.3">
@@ -32610,7 +32610,7 @@
         <v>3</v>
       </c>
       <c r="N718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.3">
@@ -32654,7 +32654,7 @@
         <v>1</v>
       </c>
       <c r="N719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.3">
@@ -32698,7 +32698,7 @@
         <v>2</v>
       </c>
       <c r="N720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.3">
@@ -32742,7 +32742,7 @@
         <v>3</v>
       </c>
       <c r="N721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.3">
@@ -32786,7 +32786,7 @@
         <v>2</v>
       </c>
       <c r="N722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.3">
@@ -32830,7 +32830,7 @@
         <v>2</v>
       </c>
       <c r="N723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.3">
@@ -32874,7 +32874,7 @@
         <v>2</v>
       </c>
       <c r="N724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.3">
@@ -32918,7 +32918,7 @@
         <v>2</v>
       </c>
       <c r="N725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.3">
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="N726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.3">
@@ -33006,7 +33006,7 @@
         <v>3</v>
       </c>
       <c r="N727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.3">
@@ -33050,7 +33050,7 @@
         <v>3</v>
       </c>
       <c r="N728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.3">
@@ -33094,7 +33094,7 @@
         <v>3</v>
       </c>
       <c r="N729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.3">
@@ -33138,7 +33138,7 @@
         <v>3</v>
       </c>
       <c r="N730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.3">
@@ -33182,7 +33182,7 @@
         <v>2</v>
       </c>
       <c r="N731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.3">
@@ -33226,7 +33226,7 @@
         <v>2</v>
       </c>
       <c r="N732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.3">
@@ -33270,7 +33270,7 @@
         <v>2</v>
       </c>
       <c r="N733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.3">
@@ -33314,7 +33314,7 @@
         <v>3</v>
       </c>
       <c r="N734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.3">
@@ -33358,7 +33358,7 @@
         <v>2</v>
       </c>
       <c r="N735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.3">
@@ -33402,7 +33402,7 @@
         <v>0</v>
       </c>
       <c r="N736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.3">
@@ -33446,7 +33446,7 @@
         <v>2</v>
       </c>
       <c r="N737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.3">
@@ -33490,7 +33490,7 @@
         <v>3</v>
       </c>
       <c r="N738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.3">
@@ -33534,7 +33534,7 @@
         <v>3</v>
       </c>
       <c r="N739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.3">
@@ -33578,7 +33578,7 @@
         <v>3</v>
       </c>
       <c r="N740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.3">
@@ -33622,7 +33622,7 @@
         <v>3</v>
       </c>
       <c r="N741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.3">
@@ -33666,7 +33666,7 @@
         <v>2</v>
       </c>
       <c r="N742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.3">
@@ -33710,7 +33710,7 @@
         <v>2</v>
       </c>
       <c r="N743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.3">
@@ -33754,7 +33754,7 @@
         <v>3</v>
       </c>
       <c r="N744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.3">
@@ -33798,7 +33798,7 @@
         <v>3</v>
       </c>
       <c r="N745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.3">
@@ -33842,7 +33842,7 @@
         <v>2</v>
       </c>
       <c r="N746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.3">
@@ -33886,7 +33886,7 @@
         <v>2</v>
       </c>
       <c r="N747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.3">
@@ -33930,7 +33930,7 @@
         <v>2</v>
       </c>
       <c r="N748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.3">
@@ -33974,7 +33974,7 @@
         <v>3</v>
       </c>
       <c r="N749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.3">
@@ -34018,7 +34018,7 @@
         <v>2</v>
       </c>
       <c r="N750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.3">
@@ -34062,7 +34062,7 @@
         <v>3</v>
       </c>
       <c r="N751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.3">
@@ -34106,7 +34106,7 @@
         <v>2</v>
       </c>
       <c r="N752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.3">
@@ -34150,7 +34150,7 @@
         <v>2</v>
       </c>
       <c r="N753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.3">
@@ -34194,7 +34194,7 @@
         <v>2</v>
       </c>
       <c r="N754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.3">
@@ -34238,7 +34238,7 @@
         <v>3</v>
       </c>
       <c r="N755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.3">
@@ -34282,7 +34282,7 @@
         <v>2</v>
       </c>
       <c r="N756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.3">
@@ -34326,7 +34326,7 @@
         <v>2</v>
       </c>
       <c r="N757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.3">
@@ -34370,7 +34370,7 @@
         <v>2</v>
       </c>
       <c r="N758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.3">
@@ -34414,7 +34414,7 @@
         <v>1</v>
       </c>
       <c r="N759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.3">
@@ -34458,7 +34458,7 @@
         <v>2</v>
       </c>
       <c r="N760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.3">
@@ -34502,7 +34502,7 @@
         <v>2</v>
       </c>
       <c r="N761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.3">
@@ -34546,7 +34546,7 @@
         <v>1</v>
       </c>
       <c r="N762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.3">
@@ -34590,7 +34590,7 @@
         <v>2</v>
       </c>
       <c r="N763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.3">
@@ -34634,7 +34634,7 @@
         <v>3</v>
       </c>
       <c r="N764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.3">
@@ -34678,7 +34678,7 @@
         <v>2</v>
       </c>
       <c r="N765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.3">
@@ -34722,7 +34722,7 @@
         <v>3</v>
       </c>
       <c r="N766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.3">
@@ -34766,7 +34766,7 @@
         <v>3</v>
       </c>
       <c r="N767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.3">
@@ -34810,7 +34810,7 @@
         <v>3</v>
       </c>
       <c r="N768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.3">
@@ -34854,7 +34854,7 @@
         <v>3</v>
       </c>
       <c r="N769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.3">
@@ -34898,7 +34898,7 @@
         <v>3</v>
       </c>
       <c r="N770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.3">
@@ -34942,7 +34942,7 @@
         <v>2</v>
       </c>
       <c r="N771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.3">
@@ -34986,7 +34986,7 @@
         <v>1</v>
       </c>
       <c r="N772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.3">
@@ -35030,7 +35030,7 @@
         <v>2</v>
       </c>
       <c r="N773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.3">
@@ -35074,7 +35074,7 @@
         <v>2</v>
       </c>
       <c r="N774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.3">
@@ -35118,7 +35118,7 @@
         <v>3</v>
       </c>
       <c r="N775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.3">
@@ -35162,7 +35162,7 @@
         <v>2</v>
       </c>
       <c r="N776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.3">
@@ -35206,7 +35206,7 @@
         <v>2</v>
       </c>
       <c r="N777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.3">
@@ -35250,7 +35250,7 @@
         <v>3</v>
       </c>
       <c r="N778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.3">
@@ -35294,7 +35294,7 @@
         <v>3</v>
       </c>
       <c r="N779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.3">
@@ -35338,7 +35338,7 @@
         <v>2</v>
       </c>
       <c r="N780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.3">
@@ -35382,7 +35382,7 @@
         <v>2</v>
       </c>
       <c r="N781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.3">
@@ -35426,7 +35426,7 @@
         <v>1</v>
       </c>
       <c r="N782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.3">
@@ -35470,7 +35470,7 @@
         <v>3</v>
       </c>
       <c r="N783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.3">
@@ -35514,7 +35514,7 @@
         <v>2</v>
       </c>
       <c r="N784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.3">
@@ -35558,7 +35558,7 @@
         <v>2</v>
       </c>
       <c r="N785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.3">
@@ -35602,7 +35602,7 @@
         <v>3</v>
       </c>
       <c r="N786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.3">
@@ -35646,7 +35646,7 @@
         <v>3</v>
       </c>
       <c r="N787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.3">
@@ -35690,7 +35690,7 @@
         <v>3</v>
       </c>
       <c r="N788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.3">
@@ -35734,7 +35734,7 @@
         <v>3</v>
       </c>
       <c r="N789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.3">
@@ -35778,7 +35778,7 @@
         <v>2</v>
       </c>
       <c r="N790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.3">
@@ -35822,7 +35822,7 @@
         <v>3</v>
       </c>
       <c r="N791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.3">
@@ -35866,7 +35866,7 @@
         <v>3</v>
       </c>
       <c r="N792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.3">
@@ -35910,7 +35910,7 @@
         <v>3</v>
       </c>
       <c r="N793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.3">
@@ -35954,7 +35954,7 @@
         <v>3</v>
       </c>
       <c r="N794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.3">
@@ -35998,7 +35998,7 @@
         <v>2</v>
       </c>
       <c r="N795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.3">
@@ -36042,7 +36042,7 @@
         <v>2</v>
       </c>
       <c r="N796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.3">
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="N797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:14" x14ac:dyDescent="0.3">
@@ -36130,7 +36130,7 @@
         <v>1</v>
       </c>
       <c r="N798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:14" x14ac:dyDescent="0.3">
@@ -36174,7 +36174,7 @@
         <v>3</v>
       </c>
       <c r="N799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.3">
@@ -36218,7 +36218,7 @@
         <v>3</v>
       </c>
       <c r="N800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.3">
@@ -36262,7 +36262,7 @@
         <v>2</v>
       </c>
       <c r="N801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.3">
@@ -36306,7 +36306,7 @@
         <v>3</v>
       </c>
       <c r="N802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:14" x14ac:dyDescent="0.3">
@@ -36350,7 +36350,7 @@
         <v>1</v>
       </c>
       <c r="N803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:14" x14ac:dyDescent="0.3">
@@ -36394,7 +36394,7 @@
         <v>2</v>
       </c>
       <c r="N804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.3">
@@ -36438,7 +36438,7 @@
         <v>2</v>
       </c>
       <c r="N805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.3">
@@ -36482,7 +36482,7 @@
         <v>2</v>
       </c>
       <c r="N806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.3">
@@ -36526,7 +36526,7 @@
         <v>3</v>
       </c>
       <c r="N807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.3">
@@ -36570,7 +36570,7 @@
         <v>1</v>
       </c>
       <c r="N808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:14" x14ac:dyDescent="0.3">
@@ -36614,7 +36614,7 @@
         <v>2</v>
       </c>
       <c r="N809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.3">
@@ -36658,7 +36658,7 @@
         <v>3</v>
       </c>
       <c r="N810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.3">
@@ -36702,7 +36702,7 @@
         <v>2</v>
       </c>
       <c r="N811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:14" x14ac:dyDescent="0.3">
@@ -36746,7 +36746,7 @@
         <v>3</v>
       </c>
       <c r="N812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.3">
@@ -36790,7 +36790,7 @@
         <v>3</v>
       </c>
       <c r="N813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:14" x14ac:dyDescent="0.3">
@@ -36834,7 +36834,7 @@
         <v>2</v>
       </c>
       <c r="N814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.3">
@@ -36878,7 +36878,7 @@
         <v>3</v>
       </c>
       <c r="N815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:14" x14ac:dyDescent="0.3">
@@ -36922,7 +36922,7 @@
         <v>2</v>
       </c>
       <c r="N816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:14" x14ac:dyDescent="0.3">
@@ -36966,7 +36966,7 @@
         <v>3</v>
       </c>
       <c r="N817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.3">
@@ -37010,7 +37010,7 @@
         <v>2</v>
       </c>
       <c r="N818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.3">
@@ -37054,7 +37054,7 @@
         <v>2</v>
       </c>
       <c r="N819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.3">
@@ -37098,7 +37098,7 @@
         <v>2</v>
       </c>
       <c r="N820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.3">
@@ -37142,7 +37142,7 @@
         <v>1</v>
       </c>
       <c r="N821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.3">
@@ -37186,7 +37186,7 @@
         <v>3</v>
       </c>
       <c r="N822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:14" x14ac:dyDescent="0.3">
@@ -37230,7 +37230,7 @@
         <v>2</v>
       </c>
       <c r="N823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.3">
@@ -37274,7 +37274,7 @@
         <v>3</v>
       </c>
       <c r="N824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.3">
@@ -37318,7 +37318,7 @@
         <v>2</v>
       </c>
       <c r="N825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.3">
@@ -37362,7 +37362,7 @@
         <v>2</v>
       </c>
       <c r="N826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.3">
@@ -37406,7 +37406,7 @@
         <v>2</v>
       </c>
       <c r="N827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:14" x14ac:dyDescent="0.3">
@@ -37450,7 +37450,7 @@
         <v>2</v>
       </c>
       <c r="N828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.3">
@@ -37494,7 +37494,7 @@
         <v>3</v>
       </c>
       <c r="N829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.3">
@@ -37538,7 +37538,7 @@
         <v>2</v>
       </c>
       <c r="N830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.3">
@@ -37582,7 +37582,7 @@
         <v>3</v>
       </c>
       <c r="N831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.3">
@@ -37626,7 +37626,7 @@
         <v>2</v>
       </c>
       <c r="N832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.3">
@@ -37670,7 +37670,7 @@
         <v>3</v>
       </c>
       <c r="N833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.3">
@@ -37714,7 +37714,7 @@
         <v>3</v>
       </c>
       <c r="N834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.3">
@@ -37758,7 +37758,7 @@
         <v>3</v>
       </c>
       <c r="N835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:14" x14ac:dyDescent="0.3">
@@ -37802,7 +37802,7 @@
         <v>1</v>
       </c>
       <c r="N836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.3">
@@ -37846,7 +37846,7 @@
         <v>2</v>
       </c>
       <c r="N837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:14" x14ac:dyDescent="0.3">
@@ -37890,7 +37890,7 @@
         <v>2</v>
       </c>
       <c r="N838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:14" x14ac:dyDescent="0.3">
@@ -37934,7 +37934,7 @@
         <v>3</v>
       </c>
       <c r="N839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:14" x14ac:dyDescent="0.3">
@@ -37978,7 +37978,7 @@
         <v>2</v>
       </c>
       <c r="N840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:14" x14ac:dyDescent="0.3">
@@ -38022,7 +38022,7 @@
         <v>2</v>
       </c>
       <c r="N841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.3">
@@ -38066,7 +38066,7 @@
         <v>3</v>
       </c>
       <c r="N842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.3">
@@ -38110,7 +38110,7 @@
         <v>2</v>
       </c>
       <c r="N843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:14" x14ac:dyDescent="0.3">
@@ -38154,7 +38154,7 @@
         <v>3</v>
       </c>
       <c r="N844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.3">
@@ -38198,7 +38198,7 @@
         <v>2</v>
       </c>
       <c r="N845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.3">
@@ -38242,7 +38242,7 @@
         <v>3</v>
       </c>
       <c r="N846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:14" x14ac:dyDescent="0.3">
@@ -38286,7 +38286,7 @@
         <v>1</v>
       </c>
       <c r="N847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:14" x14ac:dyDescent="0.3">
@@ -38330,7 +38330,7 @@
         <v>2</v>
       </c>
       <c r="N848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:14" x14ac:dyDescent="0.3">
@@ -38374,7 +38374,7 @@
         <v>2</v>
       </c>
       <c r="N849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:14" x14ac:dyDescent="0.3">
@@ -38418,7 +38418,7 @@
         <v>2</v>
       </c>
       <c r="N850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:14" x14ac:dyDescent="0.3">
@@ -38462,7 +38462,7 @@
         <v>3</v>
       </c>
       <c r="N851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:14" x14ac:dyDescent="0.3">
@@ -38506,7 +38506,7 @@
         <v>2</v>
       </c>
       <c r="N852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.3">
@@ -38550,7 +38550,7 @@
         <v>2</v>
       </c>
       <c r="N853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.3">
@@ -38594,7 +38594,7 @@
         <v>3</v>
       </c>
       <c r="N854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.3">
@@ -38638,7 +38638,7 @@
         <v>3</v>
       </c>
       <c r="N855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.3">
@@ -38682,7 +38682,7 @@
         <v>2</v>
       </c>
       <c r="N856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.3">
@@ -38726,7 +38726,7 @@
         <v>3</v>
       </c>
       <c r="N857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:14" x14ac:dyDescent="0.3">
@@ -38770,7 +38770,7 @@
         <v>2</v>
       </c>
       <c r="N858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:14" x14ac:dyDescent="0.3">
@@ -38814,7 +38814,7 @@
         <v>2</v>
       </c>
       <c r="N859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:14" x14ac:dyDescent="0.3">
@@ -38858,7 +38858,7 @@
         <v>2</v>
       </c>
       <c r="N860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:14" x14ac:dyDescent="0.3">
@@ -38902,7 +38902,7 @@
         <v>3</v>
       </c>
       <c r="N861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.3">
@@ -38946,7 +38946,7 @@
         <v>2</v>
       </c>
       <c r="N862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:14" x14ac:dyDescent="0.3">
@@ -38990,7 +38990,7 @@
         <v>2</v>
       </c>
       <c r="N863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.3">
@@ -39034,7 +39034,7 @@
         <v>3</v>
       </c>
       <c r="N864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.3">
@@ -39078,7 +39078,7 @@
         <v>3</v>
       </c>
       <c r="N865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:14" x14ac:dyDescent="0.3">
@@ -39122,7 +39122,7 @@
         <v>2</v>
       </c>
       <c r="N866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.3">
@@ -39166,7 +39166,7 @@
         <v>2</v>
       </c>
       <c r="N867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.3">
@@ -39210,7 +39210,7 @@
         <v>2</v>
       </c>
       <c r="N868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:14" x14ac:dyDescent="0.3">
@@ -39254,7 +39254,7 @@
         <v>2</v>
       </c>
       <c r="N869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.3">
@@ -39298,7 +39298,7 @@
         <v>2</v>
       </c>
       <c r="N870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.3">
@@ -39342,7 +39342,7 @@
         <v>2</v>
       </c>
       <c r="N871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.3">
@@ -39386,7 +39386,7 @@
         <v>2</v>
       </c>
       <c r="N872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.3">
@@ -39430,7 +39430,7 @@
         <v>2</v>
       </c>
       <c r="N873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.3">
@@ -39474,7 +39474,7 @@
         <v>3</v>
       </c>
       <c r="N874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.3">
@@ -39518,7 +39518,7 @@
         <v>1</v>
       </c>
       <c r="N875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:14" x14ac:dyDescent="0.3">
@@ -39562,7 +39562,7 @@
         <v>2</v>
       </c>
       <c r="N876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.3">
@@ -39606,7 +39606,7 @@
         <v>3</v>
       </c>
       <c r="N877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.3">
@@ -39650,7 +39650,7 @@
         <v>3</v>
       </c>
       <c r="N878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.3">
@@ -39694,7 +39694,7 @@
         <v>2</v>
       </c>
       <c r="N879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.3">
@@ -39738,7 +39738,7 @@
         <v>3</v>
       </c>
       <c r="N880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.3">
@@ -39782,7 +39782,7 @@
         <v>2</v>
       </c>
       <c r="N881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.3">
@@ -39826,7 +39826,7 @@
         <v>3</v>
       </c>
       <c r="N882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.3">
@@ -39870,7 +39870,7 @@
         <v>2</v>
       </c>
       <c r="N883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.3">
@@ -39914,7 +39914,7 @@
         <v>3</v>
       </c>
       <c r="N884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.3">
@@ -39958,7 +39958,7 @@
         <v>3</v>
       </c>
       <c r="N885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.3">
@@ -40002,7 +40002,7 @@
         <v>3</v>
       </c>
       <c r="N886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.3">
@@ -40046,7 +40046,7 @@
         <v>3</v>
       </c>
       <c r="N887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.3">
@@ -40090,7 +40090,7 @@
         <v>3</v>
       </c>
       <c r="N888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.3">
@@ -40134,7 +40134,7 @@
         <v>1</v>
       </c>
       <c r="N889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.3">
@@ -40178,7 +40178,7 @@
         <v>3</v>
       </c>
       <c r="N890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.3">
@@ -40222,7 +40222,7 @@
         <v>3</v>
       </c>
       <c r="N891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.3">
@@ -40266,7 +40266,7 @@
         <v>3</v>
       </c>
       <c r="N892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.3">
@@ -40310,7 +40310,7 @@
         <v>2</v>
       </c>
       <c r="N893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.3">
@@ -40354,7 +40354,7 @@
         <v>3</v>
       </c>
       <c r="N894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.3">
@@ -40398,7 +40398,7 @@
         <v>0</v>
       </c>
       <c r="N895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.3">
@@ -40442,7 +40442,7 @@
         <v>3</v>
       </c>
       <c r="N896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.3">
@@ -40486,7 +40486,7 @@
         <v>3</v>
       </c>
       <c r="N897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.3">
@@ -40530,7 +40530,7 @@
         <v>3</v>
       </c>
       <c r="N898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.3">
@@ -40574,7 +40574,7 @@
         <v>2</v>
       </c>
       <c r="N899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.3">
@@ -40618,7 +40618,7 @@
         <v>2</v>
       </c>
       <c r="N900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.3">
@@ -40662,7 +40662,7 @@
         <v>3</v>
       </c>
       <c r="N901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.3">
@@ -40706,7 +40706,7 @@
         <v>2</v>
       </c>
       <c r="N902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.3">
@@ -40750,7 +40750,7 @@
         <v>2</v>
       </c>
       <c r="N903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.3">
@@ -40794,7 +40794,7 @@
         <v>2</v>
       </c>
       <c r="N904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.3">
@@ -40838,7 +40838,7 @@
         <v>1</v>
       </c>
       <c r="N905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.3">
@@ -40882,7 +40882,7 @@
         <v>2</v>
       </c>
       <c r="N906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.3">
@@ -40926,7 +40926,7 @@
         <v>2</v>
       </c>
       <c r="N907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.3">
@@ -40970,7 +40970,7 @@
         <v>2</v>
       </c>
       <c r="N908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.3">
@@ -41014,7 +41014,7 @@
         <v>2</v>
       </c>
       <c r="N909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.3">
@@ -41058,7 +41058,7 @@
         <v>3</v>
       </c>
       <c r="N910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.3">
@@ -41102,7 +41102,7 @@
         <v>3</v>
       </c>
       <c r="N911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.3">
@@ -41146,7 +41146,7 @@
         <v>3</v>
       </c>
       <c r="N912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.3">
@@ -41190,7 +41190,7 @@
         <v>2</v>
       </c>
       <c r="N913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.3">
@@ -41234,7 +41234,7 @@
         <v>3</v>
       </c>
       <c r="N914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.3">
@@ -41278,7 +41278,7 @@
         <v>2</v>
       </c>
       <c r="N915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.3">
@@ -41322,7 +41322,7 @@
         <v>2</v>
       </c>
       <c r="N916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.3">
@@ -41366,7 +41366,7 @@
         <v>3</v>
       </c>
       <c r="N917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.3">
@@ -41410,7 +41410,7 @@
         <v>3</v>
       </c>
       <c r="N918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.3">
@@ -41454,7 +41454,7 @@
         <v>2</v>
       </c>
       <c r="N919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.3">
@@ -41498,7 +41498,7 @@
         <v>2</v>
       </c>
       <c r="N920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.3">
@@ -41542,7 +41542,7 @@
         <v>3</v>
       </c>
       <c r="N921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.3">
@@ -41586,7 +41586,7 @@
         <v>3</v>
       </c>
       <c r="N922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.3">
@@ -41630,7 +41630,7 @@
         <v>3</v>
       </c>
       <c r="N923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.3">
@@ -41674,7 +41674,7 @@
         <v>3</v>
       </c>
       <c r="N924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.3">
@@ -41718,7 +41718,7 @@
         <v>2</v>
       </c>
       <c r="N925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.3">
@@ -41762,7 +41762,7 @@
         <v>2</v>
       </c>
       <c r="N926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.3">
@@ -41806,7 +41806,7 @@
         <v>3</v>
       </c>
       <c r="N927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.3">
@@ -41850,7 +41850,7 @@
         <v>2</v>
       </c>
       <c r="N928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.3">
@@ -41894,7 +41894,7 @@
         <v>3</v>
       </c>
       <c r="N929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.3">
@@ -41938,7 +41938,7 @@
         <v>3</v>
       </c>
       <c r="N930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.3">
@@ -41982,7 +41982,7 @@
         <v>3</v>
       </c>
       <c r="N931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.3">
@@ -42026,7 +42026,7 @@
         <v>3</v>
       </c>
       <c r="N932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.3">
@@ -42070,7 +42070,7 @@
         <v>3</v>
       </c>
       <c r="N933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.3">
@@ -42114,7 +42114,7 @@
         <v>2</v>
       </c>
       <c r="N934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.3">
@@ -42158,7 +42158,7 @@
         <v>3</v>
       </c>
       <c r="N935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.3">
@@ -42202,7 +42202,7 @@
         <v>2</v>
       </c>
       <c r="N936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.3">
@@ -42246,7 +42246,7 @@
         <v>2</v>
       </c>
       <c r="N937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.3">
@@ -42290,7 +42290,7 @@
         <v>2</v>
       </c>
       <c r="N938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.3">

--- a/heart_0531.xlsx
+++ b/heart_0531.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaole\Desktop\YYY\交付物\oiAAA\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445575F-C1AA-4910-8057-24029E749F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DC0FCD-9029-4B5E-AFDD-D2348D298B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABD86A05-5CBE-4290-A710-511438F33171}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89D39C7-8B8F-4A45-92B1-96838196B392}">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O4" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3834,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -4142,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -4274,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -4362,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4450,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -4494,7 +4494,7 @@
         <v>3</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -4626,7 +4626,7 @@
         <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4714,7 +4714,7 @@
         <v>2</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -4802,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -4890,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -4934,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4978,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -5022,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -5066,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -5110,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -5154,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -5242,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -5330,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -5462,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -5506,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -5594,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -5638,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -5770,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -5814,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -5902,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -5946,7 +5946,7 @@
         <v>2</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -6034,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -6078,7 +6078,7 @@
         <v>3</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -6166,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -6210,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -6254,7 +6254,7 @@
         <v>3</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -6298,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -6386,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -6474,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -6518,7 +6518,7 @@
         <v>2</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -6606,7 +6606,7 @@
         <v>2</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -6650,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -6694,7 +6694,7 @@
         <v>2</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -6738,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -6958,7 +6958,7 @@
         <v>2</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -7002,7 +7002,7 @@
         <v>3</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
@@ -7090,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="N138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -7178,7 +7178,7 @@
         <v>2</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -7222,7 +7222,7 @@
         <v>2</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="N142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -7310,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -7354,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -7398,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -7442,7 +7442,7 @@
         <v>2</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -7486,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -7530,7 +7530,7 @@
         <v>2</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -7574,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -7618,7 +7618,7 @@
         <v>3</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -7662,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="N151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -7750,7 +7750,7 @@
         <v>3</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -7794,7 +7794,7 @@
         <v>3</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -7838,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="N155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -7882,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -7926,7 +7926,7 @@
         <v>3</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -7970,7 +7970,7 @@
         <v>3</v>
       </c>
       <c r="N158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -8014,7 +8014,7 @@
         <v>3</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -8058,7 +8058,7 @@
         <v>3</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -8102,7 +8102,7 @@
         <v>2</v>
       </c>
       <c r="N161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -8146,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="N162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -8190,7 +8190,7 @@
         <v>2</v>
       </c>
       <c r="N163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -8234,7 +8234,7 @@
         <v>2</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -8278,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="N165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -8322,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="N166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -8366,7 +8366,7 @@
         <v>3</v>
       </c>
       <c r="N167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -8410,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -8498,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -8542,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="N171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -8586,7 +8586,7 @@
         <v>2</v>
       </c>
       <c r="N172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -8630,7 +8630,7 @@
         <v>3</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -8674,7 +8674,7 @@
         <v>2</v>
       </c>
       <c r="N174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -8718,7 +8718,7 @@
         <v>2</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -8762,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="N176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -8806,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="N177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -8850,7 +8850,7 @@
         <v>3</v>
       </c>
       <c r="N178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -8894,7 +8894,7 @@
         <v>2</v>
       </c>
       <c r="N179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -8938,7 +8938,7 @@
         <v>2</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="N181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -9026,7 +9026,7 @@
         <v>3</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -9070,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="N183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -9114,7 +9114,7 @@
         <v>3</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -9158,7 +9158,7 @@
         <v>2</v>
       </c>
       <c r="N185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -9202,7 +9202,7 @@
         <v>2</v>
       </c>
       <c r="N186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -9246,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="N187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -9290,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="N188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -9334,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -9378,7 +9378,7 @@
         <v>3</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -9422,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="N191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -9466,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="N192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -9510,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="N193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -9554,7 +9554,7 @@
         <v>3</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -9598,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -9642,7 +9642,7 @@
         <v>2</v>
       </c>
       <c r="N196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -9686,7 +9686,7 @@
         <v>2</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -9730,7 +9730,7 @@
         <v>3</v>
       </c>
       <c r="N198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
@@ -9774,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="N199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -9818,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="N200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -9862,7 +9862,7 @@
         <v>3</v>
       </c>
       <c r="N201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -9906,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="N202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -9950,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="N203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>3</v>
       </c>
       <c r="N204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -10038,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="N205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
@@ -10082,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="N206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -10126,7 +10126,7 @@
         <v>2</v>
       </c>
       <c r="N207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="N208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
@@ -10214,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="N209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -10258,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="N210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
@@ -10302,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="N211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -10346,7 +10346,7 @@
         <v>3</v>
       </c>
       <c r="N212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
@@ -10390,7 +10390,7 @@
         <v>2</v>
       </c>
       <c r="N213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
@@ -10434,7 +10434,7 @@
         <v>3</v>
       </c>
       <c r="N214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -10478,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="N215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -10522,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="N216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -10566,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="N217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -10610,7 +10610,7 @@
         <v>3</v>
       </c>
       <c r="N218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
@@ -10654,7 +10654,7 @@
         <v>2</v>
       </c>
       <c r="N219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
@@ -10698,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="N220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
@@ -10742,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="N221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
@@ -10786,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="N222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
@@ -10830,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="N223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
@@ -10874,7 +10874,7 @@
         <v>2</v>
       </c>
       <c r="N224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
@@ -10918,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="N225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
@@ -10962,7 +10962,7 @@
         <v>2</v>
       </c>
       <c r="N226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -11006,7 +11006,7 @@
         <v>3</v>
       </c>
       <c r="N227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="N228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
@@ -11094,7 +11094,7 @@
         <v>2</v>
       </c>
       <c r="N229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
@@ -11138,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="N230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
@@ -11182,7 +11182,7 @@
         <v>3</v>
       </c>
       <c r="N231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
@@ -11226,7 +11226,7 @@
         <v>3</v>
       </c>
       <c r="N232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -11270,7 +11270,7 @@
         <v>2</v>
       </c>
       <c r="N233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -11314,7 +11314,7 @@
         <v>3</v>
       </c>
       <c r="N234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
@@ -11358,7 +11358,7 @@
         <v>2</v>
       </c>
       <c r="N235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
@@ -11402,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="N236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
@@ -11446,7 +11446,7 @@
         <v>3</v>
       </c>
       <c r="N237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
@@ -11490,7 +11490,7 @@
         <v>2</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
@@ -11534,7 +11534,7 @@
         <v>3</v>
       </c>
       <c r="N239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="N240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -11622,7 +11622,7 @@
         <v>2</v>
       </c>
       <c r="N241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -11666,7 +11666,7 @@
         <v>2</v>
       </c>
       <c r="N242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -11710,7 +11710,7 @@
         <v>3</v>
       </c>
       <c r="N243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -11754,7 +11754,7 @@
         <v>2</v>
       </c>
       <c r="N244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -11798,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="N245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -11842,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="N246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
